--- a/Business - Technology Services/ALAB.xlsx
+++ b/Business - Technology Services/ALAB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB91E8DD-AB35-4327-96D3-1D360F6816F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C54C3-2DF6-4392-8E74-92713D6C536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,15 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$8</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$3:$W$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$4:$W$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$16</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$17</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$16:$W$16</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$17:$W$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$7:$W$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$8:$W$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$20</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$24</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$20:$W$20</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$24:$W$24</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Model!$K$2:$W$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="213">
   <si>
     <t>Price</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>Net Income</t>
-  </si>
-  <si>
-    <t>EPS</t>
   </si>
   <si>
     <t>Operational Income</t>
@@ -847,17 +844,132 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>GAAP EPS</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Non-Gap Net Income</t>
+  </si>
+  <si>
+    <t>Non Gap EPS</t>
+  </si>
+  <si>
+    <t>Geographic Revenues</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mr. Jitendra Mohan</t>
+  </si>
+  <si>
+    <t>Co-Founder, CEO &amp; Executive Director</t>
+  </si>
+  <si>
+    <t>492.13k</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Mr. Philip Mazzara</t>
+  </si>
+  <si>
+    <t>General Counsel &amp; Secretary</t>
+  </si>
+  <si>
+    <t>491.59k</t>
+  </si>
+  <si>
+    <t>Mr. Sanjay Gajendra</t>
+  </si>
+  <si>
+    <t>Co-Founder, President, COO &amp; Director</t>
+  </si>
+  <si>
+    <t>Mr. Casey Morrison</t>
+  </si>
+  <si>
+    <t>Co-Founder &amp; Chief Product Officer</t>
+  </si>
+  <si>
+    <t>Mr. Michael T. Tate CPA</t>
+  </si>
+  <si>
+    <t>Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>Mr. Nicholas H. Aberle</t>
+  </si>
+  <si>
+    <t>VP, Treasurer &amp; Head of Investor Relations</t>
+  </si>
+  <si>
+    <t>Mr. Kelvin Khoo</t>
+  </si>
+  <si>
+    <t>Senior Vice President of Corporate Development</t>
+  </si>
+  <si>
+    <t>Mr. Patrick Henderson</t>
+  </si>
+  <si>
+    <t>Senior Vice President of Sales</t>
+  </si>
+  <si>
+    <t>Ms. Paroma Sen</t>
+  </si>
+  <si>
+    <t>Vice president of Corporate Marketing</t>
+  </si>
+  <si>
+    <t>Mr. Kush Saxena</t>
+  </si>
+  <si>
+    <t>Chief Human Resources Officer</t>
+  </si>
+  <si>
+    <t>Ex Texas Instruments</t>
+  </si>
+  <si>
+    <t>Ex Net Iwas that was exited to Broadcom</t>
+  </si>
+  <si>
+    <t>Astera Labs, Inc. designs, manufactures, and sells semiconductor-based connectivity solutions for cloud and AI infrastructure. Its Intelligent Connectivity Platform is comprised of a portfolio of data, network, and memory connectivity products, which are built on a unifying software-defined architecture that enables customers to deploy and operate high performance cloud and AI infrastructure at scale. The company was incorporated in 2017 and is based in Santa Clara, California.</t>
+  </si>
+  <si>
+    <t>Rückenwind von Analysten-Upgrades</t>
+  </si>
+  <si>
+    <t>Sehr abhängig von Taiwan</t>
+  </si>
+  <si>
+    <t>Sehr abhängig von einzelnen großen Kunden</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,8 +1076,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF232A31"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,6 +1160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,7 +1732,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1748,6 +1880,16 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1805,22 +1947,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1924,7 +2071,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$3</c:f>
+              <c:f>Model!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2087,15 +2234,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$3:$W$3</c:f>
+              <c:f>Model!$K$7:$W$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="8" formatCode="#,##0.00">
+                <c:pt idx="8">
                   <c:v>17.664000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.688000000000001</c:v>
+                  <c:v>10.687999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>65.257999999999996</c:v>
@@ -2130,7 +2283,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$20</c:f>
+              <c:f>Model!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2207,7 +2360,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$20:$W$20</c:f>
+              <c:f>Model!$K$27:$W$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2580,7 +2733,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$3</c:f>
+              <c:f>Model!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2612,6 +2765,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FFD7-4043-9EFA-38773737EDDF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2714,7 +2872,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$3:$H$3</c:f>
+              <c:f>Model!$C$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2747,7 +2905,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$20</c:f>
+              <c:f>Model!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2834,7 +2992,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$20:$H$20</c:f>
+              <c:f>Model!$C$27:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3198,7 +3356,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$14</c:f>
+              <c:f>Model!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3361,7 +3519,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$14:$W$14</c:f>
+              <c:f>Model!$K$18:$W$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3434,7 +3592,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$18</c:f>
+              <c:f>Model!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3511,7 +3669,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$18:$W$18</c:f>
+              <c:f>Model!$K$25:$W$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3896,7 +4054,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$14</c:f>
+              <c:f>Model!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3996,7 +4154,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$14:$H$14</c:f>
+              <c:f>Model!$C$18:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4042,7 +4200,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$24</c:f>
+              <c:f>Model!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4117,7 +4275,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$24:$H$24</c:f>
+              <c:f>Model!$C$31:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4496,7 +4654,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$21</c:f>
+              <c:f>Model!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4630,7 +4788,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$21:$U$21</c:f>
+              <c:f>Model!$K$28:$U$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4662,7 +4820,7 @@
                   <c:v>0.24869791666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47688997005988026</c:v>
+                  <c:v>0.47688997005988032</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -4682,7 +4840,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$22</c:f>
+              <c:f>Model!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4775,7 +4933,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$22:$V$22</c:f>
+              <c:f>Model!$K$29:$V$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4807,7 +4965,7 @@
                   <c:v>0.86430027173913038</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6710329341317365</c:v>
+                  <c:v>1.6710329341317367</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -4830,7 +4988,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$23</c:f>
+              <c:f>Model!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4923,7 +5081,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$23:$V$23</c:f>
+              <c:f>Model!$K$30:$V$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5267,7 +5425,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$21</c:f>
+              <c:f>Model!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5380,7 +5538,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$21:$F$21</c:f>
+              <c:f>Model!$C$28:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5411,7 +5569,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$22</c:f>
+              <c:f>Model!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5524,7 +5682,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$22:$F$22</c:f>
+              <c:f>Model!$C$29:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5555,7 +5713,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$23</c:f>
+              <c:f>Model!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5668,7 +5826,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$23:$F$23</c:f>
+              <c:f>Model!$C$30:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6623,7 +6781,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.5</cx:f>
-              <cx:v>EPS</cx:v>
+              <cx:v>GAAP EPS</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -13042,10 +13200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N36"/>
+  <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13066,57 +13224,64 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="61" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>49</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="20">
         <v>45555</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="157" t="s">
-        <v>146</v>
-      </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J3" s="37"/>
-      <c r="L3" s="5"/>
-      <c r="N3" s="36"/>
+      <c r="L3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -13124,39 +13289,51 @@
         <v>0.98124999999999996</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="157" t="s">
-        <v>148</v>
-      </c>
       <c r="H4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J4" s="37"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" t="s">
+        <v>189</v>
+      </c>
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
       <c r="E5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="157" t="s">
-        <v>150</v>
-      </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J5" s="37"/>
-      <c r="L5" s="5"/>
-      <c r="N5" s="13"/>
+      <c r="L5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -13166,44 +13343,58 @@
         <v>50.5</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="157" t="s">
-        <v>152</v>
-      </c>
       <c r="H6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I6" s="10">
         <v>161.74700000000001</v>
       </c>
       <c r="J6" s="37"/>
-      <c r="L6" s="5"/>
-      <c r="N6" s="13"/>
+      <c r="L6" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="M6" t="s">
+        <v>194</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!X15</f>
+        <f>Model!X19</f>
         <v>155.19900000000001</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="157" t="s">
-        <v>154</v>
-      </c>
       <c r="H7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7" s="10">
         <v>165</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="L7" s="5"/>
-      <c r="N7" s="13"/>
+      <c r="L7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -13214,19 +13405,24 @@
         <v>7837.549500000001</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="157" t="s">
-        <v>156</v>
-      </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" s="10">
         <v>4.5730000000000004</v>
       </c>
       <c r="J8" s="37"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" t="s">
+        <v>198</v>
+      </c>
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -13234,23 +13430,28 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!X30+Model!X31</f>
+        <f>Model!X37+Model!X38</f>
         <v>830.995</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="157" t="s">
-        <v>158</v>
-      </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="10">
         <v>325.47399999999999</v>
       </c>
       <c r="J9" s="37"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" t="s">
+        <v>200</v>
+      </c>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -13258,47 +13459,57 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!E30+Model!E34</f>
+        <f>Model!E37+Model!E41</f>
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="157" t="s">
-        <v>160</v>
-      </c>
       <c r="H10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J10" s="37"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="M10" t="s">
+        <v>202</v>
+      </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
         <v>830.995</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="157" t="s">
-        <v>162</v>
-      </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J11" s="37"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M11" t="s">
+        <v>204</v>
+      </c>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -13310,24 +13521,29 @@
         <v>7006.5545000000011</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="130" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="157" t="s">
-        <v>164</v>
-      </c>
       <c r="H12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" t="s">
         <v>174</v>
       </c>
-      <c r="I12" t="s">
-        <v>175</v>
-      </c>
       <c r="J12" s="13"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" t="s">
+        <v>206</v>
+      </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="35"/>
       <c r="E13" s="5"/>
@@ -13337,10 +13553,10 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="35">
-        <f>C6/Model!G17</f>
+        <f>C6/Model!G24</f>
         <v>90.178571428571416</v>
       </c>
       <c r="E14" s="22"/>
@@ -13355,228 +13571,389 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="35">
-        <f>C6/Model!H17</f>
+        <f>C6/Model!H24</f>
         <v>60.11904761904762</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!H17/Model!G17-1</f>
+        <f>Model!H24/Model!G24-1</f>
         <v>0.49999999999999978</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="127"/>
+        <v>53</v>
+      </c>
+      <c r="L17" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="M17" s="132"/>
+      <c r="N17" s="133"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="50"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="130"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="136"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="50">
         <f>C15/(C17*100)</f>
         <v>1.202380952380953</v>
       </c>
-      <c r="L19" s="128"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="130"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="136"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="130"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="136"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="6">
-        <f>Model!H4/Model!G4-1</f>
+        <f>Model!H8/Model!G8-1</f>
         <v>0.48861061072694523</v>
       </c>
-      <c r="L21" s="128"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="130"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="136"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="130"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="136"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!E6</f>
+        <f>Model!E10</f>
         <v>0</v>
       </c>
-      <c r="L23" s="128"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="130"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="136"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!E10</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="128"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="130"/>
+        <f>Model!X25</f>
+        <v>0.77884189980481455</v>
+      </c>
+      <c r="L24" s="134"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="136"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="7" t="e">
-        <f>Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L25" s="128"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="130"/>
+        <v>30</v>
+      </c>
+      <c r="C25" s="7">
+        <f>Model!X26</f>
+        <v>-0.10200390370852322</v>
+      </c>
+      <c r="L25" s="134"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="136"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="35" t="e">
-        <f>C12/C23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="128"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="130"/>
+        <v>70</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="136"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="121" t="e">
-        <f>Model!P34/Model!#REF!</f>
-        <v>#REF!</v>
+        <v>81</v>
+      </c>
+      <c r="C27" s="121">
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="128"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="130"/>
+        <v>72</v>
+      </c>
+      <c r="L27" s="134"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="136"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="35" t="e">
-        <f>C22/-Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="131"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="133"/>
+        <v>82</v>
+      </c>
+      <c r="C28" s="35">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" s="137"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="139"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="35" t="e">
-        <f>Model!#REF!/Model!P33</f>
-        <v>#REF!</v>
+        <v>83</v>
+      </c>
+      <c r="C29" s="35">
+        <f>Model!X42/Model!X48</f>
+        <v>13.909837216924444</v>
+      </c>
+      <c r="E29" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="35" t="e">
-        <f>(Model!P19+Model!P20)/Model!P33</f>
-        <v>#DIV/0!</v>
+        <v>84</v>
+      </c>
+      <c r="C30" s="35">
+        <f>(Model!X37+Model!X38+Model!X39)/Model!X48</f>
+        <v>13.316498369047803</v>
+      </c>
+      <c r="E30" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="6" t="e">
-        <f>(Model!#REF!-Model!P33)/Model!P29</f>
-        <v>#REF!</v>
+        <v>85</v>
+      </c>
+      <c r="C31" s="6">
+        <f>(Model!X42-Model!X48)/Model!X45</f>
+        <v>0.90350458485114937</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="35">
+        <f>(Model!P36-Model!P44)/Main!C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="35">
-        <f>(Model!P29-Model!P37)/Main!C7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="35"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="35" t="e">
-        <f>Model!#REF!/Model!P29</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="37"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="37" t="e">
-        <f>Model!P8/Model!P29</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="37"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="37" t="e">
-        <f>Model!P8/Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
-        <v>91</v>
-      </c>
       <c r="C36" s="23"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E43" s="163" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="163" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="164" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="I43" s="164">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E44" s="163" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="163" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="164" t="s">
+        <v>190</v>
+      </c>
+      <c r="H44" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" s="164">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E45" s="163" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="163" t="s">
+        <v>192</v>
+      </c>
+      <c r="G45" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="I45" s="164">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E46" s="163" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="163" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="I46" s="164" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E47" s="163" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" s="163" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="H47" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="I47" s="164">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E48" s="163" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" s="163" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="I48" s="164" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="163" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="H49" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="I49" s="164" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E50" s="163" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="163" t="s">
+        <v>202</v>
+      </c>
+      <c r="G50" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="H50" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="I50" s="164" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E51" s="163" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" s="163" t="s">
+        <v>204</v>
+      </c>
+      <c r="G51" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="H51" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="I51" s="164" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E52" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="163" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" s="162"/>
+      <c r="H52" s="162"/>
+      <c r="I52" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13590,13 +13967,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AA65"/>
+  <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA20" sqref="AA20"/>
+      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13604,13 +13981,12 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="13"/>
-    <col min="22" max="22" width="11.42578125" style="145"/>
     <col min="24" max="24" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -13627,13 +14003,13 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
@@ -13660,342 +14036,232 @@
         <v>9</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="145" t="s">
-        <v>40</v>
-      </c>
       <c r="W2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="153" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z2" t="s">
         <v>138</v>
       </c>
-      <c r="Z2" s="153" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="154">
-        <v>17.664000000000001</v>
-      </c>
-      <c r="T3" s="11">
-        <v>10.688000000000001</v>
-      </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146">
-        <v>65.257999999999996</v>
-      </c>
-      <c r="X3" s="14">
-        <v>76.849999999999994</v>
-      </c>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="147"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="S3" s="160">
+        <v>9.734</v>
+      </c>
+      <c r="T3" s="160">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160">
+        <v>59.573</v>
+      </c>
+      <c r="X3" s="161">
+        <v>63.954999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="41">
-        <v>344.18</v>
-      </c>
-      <c r="H4" s="41">
-        <v>512.35</v>
-      </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="147">
-        <v>95.66</v>
-      </c>
-      <c r="Z4" s="147">
-        <v>106.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="154">
-        <v>13.406000000000001</v>
-      </c>
-      <c r="T5" s="11">
-        <v>2.2490000000000001</v>
-      </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146">
-        <v>14.738</v>
-      </c>
-      <c r="X5" s="14">
-        <v>16.995999999999999</v>
-      </c>
-      <c r="Y5" s="146">
-        <f>Y4*(1-X18)</f>
-        <v>21.155983864671438</v>
-      </c>
-      <c r="Z5" s="146">
-        <f>Z4*(1-X18)</f>
-        <v>23.491413402732597</v>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="S4" s="160">
+        <v>5.37</v>
+      </c>
+      <c r="T4" s="160">
+        <v>6.2220000000000004</v>
+      </c>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160">
+        <v>0</v>
+      </c>
+      <c r="X4" s="161">
+        <v>4.4989999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="S5" s="160">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="T5" s="160">
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="U5" s="160"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="X5" s="161">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="156">
-        <v>15.266999999999999</v>
-      </c>
-      <c r="T6" s="10">
-        <v>17.86</v>
-      </c>
-      <c r="U6" s="10"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147">
-        <v>53.558</v>
-      </c>
-      <c r="X6" s="15">
-        <v>40.088999999999999</v>
-      </c>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="156">
-        <v>4.3929999999999998</v>
-      </c>
-      <c r="T7" s="10">
-        <v>5.0970000000000004</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="147"/>
-      <c r="W7" s="147">
-        <v>55.51</v>
-      </c>
-      <c r="X7" s="15">
-        <v>22.076000000000001</v>
-      </c>
-      <c r="Y7" s="147"/>
-      <c r="Z7" s="147"/>
+        <v>25</v>
+      </c>
+      <c r="S6" s="160">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="T6" s="160">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="U6" s="160"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="160">
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="X6" s="161">
+        <v>8.3960000000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11">
+        <f t="shared" ref="S7:V7" si="0">SUM(S3:S6)</f>
+        <v>17.664000000000001</v>
+      </c>
+      <c r="T7" s="11">
+        <f t="shared" si="0"/>
+        <v>10.687999999999999</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <f>SUM(W3:W6)</f>
+        <v>65.257999999999996</v>
+      </c>
+      <c r="X7" s="14">
+        <f>SUM(X3:X6)</f>
+        <v>76.849999999999994</v>
+      </c>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>134</v>
+      <c r="B8" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="156">
-        <v>3.5249999999999999</v>
-      </c>
-      <c r="T8" s="10">
-        <v>3.0950000000000002</v>
-      </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147">
-        <v>24.419</v>
+      <c r="G8" s="41">
+        <v>344.18</v>
+      </c>
+      <c r="H8" s="41">
+        <v>512.35</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10">
+        <v>56.7</v>
       </c>
       <c r="X8" s="15">
-        <v>22.036000000000001</v>
-      </c>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
+        <v>72.411000000000001</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>95.66</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>106.22</v>
+      </c>
     </row>
     <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="11">
-        <f>C3-SUM(C5:C8)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <f>D3-SUM(D5:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <f>E3-SUM(E5:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
-        <f>F3-SUM(F5:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <f>G3-SUM(G5:G8)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <f>H3-SUM(H5:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <f>K3-SUM(K5:K8)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <f>L3-SUM(L5:L8)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <f>M3-SUM(M5:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <f>N3-SUM(N5:N8)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
-        <f>O3-SUM(O5:O8)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
-        <f>P3-SUM(P5:P8)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <f>Q3-SUM(Q5:Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <f>R3-SUM(R5:R8)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="154">
-        <f>S3-SUM(S5:S8)</f>
-        <v>-18.927</v>
+        <v>58</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="127">
+        <v>13.406000000000001</v>
       </c>
       <c r="T9" s="11">
-        <f>T3-SUM(T5:T8)</f>
-        <v>-17.613</v>
-      </c>
-      <c r="U9" s="11">
-        <f>U3-SUM(U5:U8)</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="146">
-        <f>V3-SUM(V5:V8)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="146">
-        <f>W3-SUM(W5:W8)</f>
-        <v>-82.966999999999999</v>
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11">
+        <v>14.738</v>
       </c>
       <c r="X9" s="14">
-        <f>X3-SUM(X5:X8)</f>
-        <v>-24.347000000000008</v>
-      </c>
-      <c r="Y9" s="146">
-        <f>Y3-SUM(Y5:Y8)</f>
-        <v>-21.155983864671438</v>
-      </c>
-      <c r="Z9" s="146">
-        <f>Z3-SUM(Z5:Z8)</f>
-        <v>-23.491413402732597</v>
+        <v>16.995999999999999</v>
+      </c>
+      <c r="Y9" s="11">
+        <f>Y8*(1-X25)</f>
+        <v>21.155983864671438</v>
+      </c>
+      <c r="Z9" s="11">
+        <f>Z8*(1-X25)</f>
+        <v>23.491413402732597</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -14011,126 +14277,68 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="156">
-        <v>1.5960000000000001</v>
+      <c r="S10" s="129">
+        <v>15.266999999999999</v>
       </c>
       <c r="T10" s="10">
-        <v>1.5549999999999999</v>
+        <v>17.86</v>
       </c>
       <c r="U10" s="10"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147">
-        <v>2.5539999999999998</v>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10">
+        <v>53.558</v>
       </c>
       <c r="X10" s="15">
-        <v>10.263999999999999</v>
-      </c>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-    </row>
-    <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="11">
-        <f>C9+SUM(C10:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <f>D9+SUM(D10:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <f>E9+SUM(E10:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <f>F9+SUM(F10:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <f>G9+SUM(G10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <f>H9+SUM(H10:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <f>K9+SUM(K10:K10)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <f>L9+SUM(L10:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <f>M9+SUM(M10:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <f>N9+SUM(N10:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <f>O9+SUM(O10:O10)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <f>P9+SUM(P10:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <f>Q9+SUM(Q10:Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <f>R9+SUM(R10:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="154">
-        <f>S9+SUM(S10:S10)</f>
-        <v>-17.331</v>
-      </c>
-      <c r="T11" s="11">
-        <f>T9+SUM(T10:T10)</f>
-        <v>-16.058</v>
-      </c>
-      <c r="U11" s="11">
-        <f>U9+SUM(U10:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="146">
-        <f>V9+SUM(V10:V10)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="146">
-        <f>W9+SUM(W10:W10)</f>
-        <v>-80.412999999999997</v>
-      </c>
-      <c r="X11" s="14">
-        <f>X9+SUM(X10:X10)</f>
-        <v>-14.083000000000009</v>
-      </c>
-      <c r="Y11" s="146">
-        <f>Y9+SUM(Y10:Y10)</f>
-        <v>-21.155983864671438</v>
-      </c>
-      <c r="Z11" s="146">
-        <f>Z9+SUM(Z10:Z10)</f>
-        <v>-23.491413402732597</v>
-      </c>
+        <v>40.088999999999999</v>
+      </c>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="129">
+        <v>4.3929999999999998</v>
+      </c>
+      <c r="T11" s="10">
+        <v>5.0970000000000004</v>
+      </c>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10">
+        <v>55.51</v>
+      </c>
+      <c r="X11" s="15">
+        <v>22.076000000000001</v>
+      </c>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -14139,1392 +14347,1454 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="156">
+      <c r="S12" s="129">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="T12" s="10">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10">
+        <v>24.419</v>
+      </c>
+      <c r="X12" s="15">
+        <v>22.036000000000001</v>
+      </c>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" ref="C13:H13" si="1">C7-SUM(C9:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
+        <f t="shared" ref="K13:Z13" si="2">K7-SUM(K9:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="127">
+        <f t="shared" si="2"/>
+        <v>-18.927</v>
+      </c>
+      <c r="T13" s="11">
+        <f t="shared" si="2"/>
+        <v>-17.613</v>
+      </c>
+      <c r="U13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <f t="shared" si="2"/>
+        <v>-82.966999999999999</v>
+      </c>
+      <c r="X13" s="14">
+        <f t="shared" si="2"/>
+        <v>-24.347000000000008</v>
+      </c>
+      <c r="Y13" s="11">
+        <f t="shared" si="2"/>
+        <v>-21.155983864671438</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="2"/>
+        <v>-23.491413402732597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="129">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="T14" s="10">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10">
+        <v>2.5539999999999998</v>
+      </c>
+      <c r="X14" s="15">
+        <v>10.263999999999999</v>
+      </c>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" ref="C15:H15" si="3">C13+SUM(C14:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" ref="K15:Z15" si="4">K13+SUM(K14:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="127">
+        <f t="shared" si="4"/>
+        <v>-17.331</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" si="4"/>
+        <v>-16.058</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="11">
+        <f t="shared" si="4"/>
+        <v>-80.412999999999997</v>
+      </c>
+      <c r="X15" s="14">
+        <f t="shared" si="4"/>
+        <v>-14.083000000000009</v>
+      </c>
+      <c r="Y15" s="11">
+        <f t="shared" si="4"/>
+        <v>-21.155983864671438</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="4"/>
+        <v>-23.491413402732597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="129">
         <v>0.123</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T16" s="10">
         <v>3.9460000000000002</v>
       </c>
-      <c r="U12" s="10"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147">
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10">
         <v>12.582000000000001</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X16" s="15">
         <v>-6.5369999999999999</v>
       </c>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="156">
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="129">
         <v>-0.20799999999999999</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T17" s="10">
         <v>0.21199999999999999</v>
       </c>
-      <c r="U13" s="10"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147">
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10">
         <v>0.318</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X17" s="15">
         <v>0.29299999999999998</v>
       </c>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-    </row>
-    <row r="14" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+    </row>
+    <row r="18" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="11">
-        <f t="shared" ref="C14:F14" si="0">C11-SUM(C12:C13)</f>
+      <c r="C18" s="11">
+        <f t="shared" ref="C18:F18" si="5">C15-SUM(C16:C17)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="11">
-        <f t="shared" si="0"/>
+      <c r="D18" s="11">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E14" s="11">
-        <f t="shared" si="0"/>
+      <c r="E18" s="11">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F14" s="14">
-        <f t="shared" si="0"/>
+      <c r="F18" s="14">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="K14" s="11">
-        <f t="shared" ref="K14" si="1">K11-SUM(K12:K13)</f>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="K18" s="11">
+        <f t="shared" ref="K18" si="6">K15-SUM(K16:K17)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="11">
-        <f t="shared" ref="L14" si="2">L11-SUM(L12:L13)</f>
+      <c r="L18" s="11">
+        <f t="shared" ref="L18" si="7">L15-SUM(L16:L17)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="11">
-        <f t="shared" ref="M14" si="3">M11-SUM(M12:M13)</f>
+      <c r="M18" s="11">
+        <f t="shared" ref="M18" si="8">M15-SUM(M16:M17)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="11">
-        <f t="shared" ref="N14" si="4">N11-SUM(N12:N13)</f>
+      <c r="N18" s="11">
+        <f t="shared" ref="N18" si="9">N15-SUM(N16:N17)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="11">
-        <f t="shared" ref="O14" si="5">O11-SUM(O12:O13)</f>
+      <c r="O18" s="11">
+        <f t="shared" ref="O18" si="10">O15-SUM(O16:O17)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="11">
-        <f t="shared" ref="P14" si="6">P11-SUM(P12:P13)</f>
+      <c r="P18" s="11">
+        <f t="shared" ref="P18" si="11">P15-SUM(P16:P17)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="11">
-        <f t="shared" ref="Q14" si="7">Q11-SUM(Q12:Q13)</f>
+      <c r="Q18" s="11">
+        <f t="shared" ref="Q18" si="12">Q15-SUM(Q16:Q17)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="11">
-        <f t="shared" ref="R14" si="8">R11-SUM(R12:R13)</f>
+      <c r="R18" s="11">
+        <f t="shared" ref="R18" si="13">R15-SUM(R16:R17)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="154">
-        <f t="shared" ref="S14" si="9">S11-SUM(S12:S13)</f>
+      <c r="S18" s="127">
+        <f t="shared" ref="S18" si="14">S15-SUM(S16:S17)</f>
         <v>-17.245999999999999</v>
       </c>
-      <c r="T14" s="11">
-        <f t="shared" ref="T14" si="10">T11-SUM(T12:T13)</f>
+      <c r="T18" s="11">
+        <f t="shared" ref="T18" si="15">T15-SUM(T16:T17)</f>
         <v>-20.216000000000001</v>
       </c>
-      <c r="U14" s="11">
-        <f t="shared" ref="U14" si="11">U11-SUM(U12:U13)</f>
+      <c r="U18" s="11">
+        <f t="shared" ref="U18" si="16">U15-SUM(U16:U17)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="146">
-        <f t="shared" ref="V14:Z14" si="12">V11-SUM(V12:V13)</f>
+      <c r="V18" s="11">
+        <f t="shared" ref="V18:Z18" si="17">V15-SUM(V16:V17)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="146">
-        <f t="shared" si="12"/>
+      <c r="W18" s="11">
+        <f t="shared" si="17"/>
         <v>-93.313000000000002</v>
       </c>
-      <c r="X14" s="14">
-        <f t="shared" si="12"/>
+      <c r="X18" s="14">
+        <f>X15-SUM(X16:X17)</f>
         <v>-7.8390000000000093</v>
       </c>
-      <c r="Y14" s="146">
-        <f t="shared" si="12"/>
+      <c r="Y18" s="11">
+        <f t="shared" si="17"/>
         <v>-21.155983864671438</v>
       </c>
-      <c r="Z14" s="146">
-        <f t="shared" si="12"/>
+      <c r="Z18" s="11">
+        <f t="shared" si="17"/>
         <v>-23.491413402732597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10">
-        <v>35.826000000000001</v>
-      </c>
-      <c r="T15" s="10">
-        <v>36.567</v>
-      </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="147">
-        <v>52.531999999999996</v>
-      </c>
-      <c r="X15" s="15">
-        <v>155.19900000000001</v>
-      </c>
-      <c r="Y15" s="147">
-        <v>156</v>
-      </c>
-      <c r="Z15" s="147">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="e">
-        <f>C14/C15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="2" t="e">
-        <f>D14/D15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="2" t="e">
-        <f>E14/E15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="56" t="e">
-        <f>F14/F15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-      <c r="K16" s="2" t="e">
-        <f>K14/K15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="2" t="e">
-        <f t="shared" ref="L16:V16" si="13">L14/L15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="2" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="2" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="2" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="2" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="2" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="2" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="2">
-        <f t="shared" si="13"/>
-        <v>-0.48138223636465133</v>
-      </c>
-      <c r="T16" s="2">
-        <f t="shared" si="13"/>
-        <v>-0.55284819646129024</v>
-      </c>
-      <c r="U16" s="2" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="148" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W16" s="148">
-        <f t="shared" ref="W16:Z16" si="14">W14/W15</f>
-        <v>-1.7763077743089928</v>
-      </c>
-      <c r="X16" s="34">
-        <f t="shared" si="14"/>
-        <v>-5.0509346065374189E-2</v>
-      </c>
-      <c r="Y16" s="148">
-        <f t="shared" si="14"/>
-        <v>-0.13561528118379126</v>
-      </c>
-      <c r="Z16" s="148">
-        <f t="shared" si="14"/>
-        <v>-0.14962683696008022</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="43">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H17" s="44">
-        <v>0.84</v>
-      </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="149"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="149">
-        <v>0.16</v>
-      </c>
-      <c r="Z17" s="149">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="e">
-        <f>1-C5/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="3" t="e">
-        <f>1-D5/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="3" t="e">
-        <f>1-E5/E3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="6" t="e">
-        <f>1-F5/F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="K18" s="3" t="e">
-        <f>1-K5/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="3" t="e">
-        <f>1-L5/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="3" t="e">
-        <f>1-M5/M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="3" t="e">
-        <f>1-N5/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="3" t="e">
-        <f>1-O5/O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="3" t="e">
-        <f>1-P5/P3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="3" t="e">
-        <f>1-Q5/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R18" s="3" t="e">
-        <f>1-R5/R3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" s="3">
-        <f>1-S5/S3</f>
-        <v>0.24105525362318847</v>
-      </c>
-      <c r="T18" s="3">
-        <f>1-T5/T3</f>
-        <v>0.7895770958083832</v>
-      </c>
-      <c r="U18" s="3" t="e">
-        <f>1-U5/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V18" s="38" t="e">
-        <f>1-V5/V3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W18" s="38">
-        <f>1-W5/W3</f>
-        <v>0.7741579576450397</v>
-      </c>
-      <c r="X18" s="6">
-        <f>1-X5/X3</f>
-        <v>0.77884189980481455</v>
-      </c>
-      <c r="Y18" s="38" t="e">
-        <f>1-Y5/Y3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z18" s="38" t="e">
-        <f>1-Z5/Z3</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="4" t="e">
-        <f>C14/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="4" t="e">
-        <f>D14/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="4" t="e">
-        <f>E14/E3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="7" t="e">
-        <f>F14/F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="46">
-        <f>G14/G4</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="46">
-        <f>H14/H4</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4" t="e">
-        <f>K14/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="4" t="e">
-        <f>L14/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="4" t="e">
-        <f>M14/M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4" t="e">
-        <f>N14/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="4" t="e">
-        <f>O14/O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="4" t="e">
-        <f>P14/P3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" s="4" t="e">
-        <f>Q14/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" s="4" t="e">
-        <f>R14/R3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="4">
-        <f>S14/S3</f>
-        <v>-0.97633605072463747</v>
-      </c>
-      <c r="T19" s="4">
-        <f>T14/T3</f>
-        <v>-1.8914670658682635</v>
-      </c>
-      <c r="U19" s="4" t="e">
-        <f>U14/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" s="150" t="e">
-        <f>V14/V3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W19" s="150">
-        <f>W14/W3</f>
-        <v>-1.4299089766771891</v>
-      </c>
-      <c r="X19" s="7">
-        <f>X14/X3</f>
-        <v>-0.10200390370852322</v>
-      </c>
-      <c r="Y19" s="150" t="e">
-        <f>Y14/Y3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z19" s="150" t="e">
-        <f>Z14/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3" t="e">
-        <f>C3/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="3" t="e">
-        <f>D3/C3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="38" t="e">
-        <f>E3/D3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="6" t="e">
-        <f>F3/E3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="47" t="e">
-        <f>G4/F3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="47">
-        <f>H4/G4-1</f>
-        <v>0.48861061072694523</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4" t="e">
-        <f>O3/K3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="4" t="e">
-        <f>P3/L3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="4" t="e">
-        <f>Q3/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="4" t="e">
-        <f>R3/N3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="4" t="e">
-        <f>S3/O3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="4" t="e">
-        <f>T3/P3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" s="4" t="e">
-        <f>U3/Q3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V20" s="150" t="e">
-        <f>V3/R3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W20" s="150">
-        <f>W3/S3-1</f>
-        <v>2.6944067028985503</v>
-      </c>
-      <c r="X20" s="7">
-        <f>X3/T3-1</f>
-        <v>6.1903068862275443</v>
-      </c>
-      <c r="Y20" s="150" t="e">
-        <f>Y3/U3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z20" s="150" t="e">
-        <f>Z3/V3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="150" t="e">
-        <f t="shared" ref="C21:F21" si="15">C7/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="150" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="150" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="150" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="K21" s="150" t="e">
-        <f t="shared" ref="K21:V21" si="16">K7/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="150" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="150" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="150" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="150" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="150" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="150" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="150" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="150">
-        <f t="shared" si="16"/>
-        <v>0.24869791666666663</v>
-      </c>
-      <c r="T21" s="150">
-        <f t="shared" si="16"/>
-        <v>0.47688997005988026</v>
-      </c>
-      <c r="U21" s="150" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" s="150" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W21" s="150">
-        <f>W7/W3</f>
-        <v>0.85062367832296426</v>
-      </c>
-      <c r="X21" s="7">
-        <f t="shared" ref="X21:Z21" si="17">X7/X3</f>
-        <v>0.28726089785296033</v>
-      </c>
-      <c r="Y21" s="150" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z21" s="150" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="150" t="e">
-        <f t="shared" ref="C22:F22" si="18">C6/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="150" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="150" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="150" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="K22" s="150" t="e">
-        <f t="shared" ref="K22:V22" si="19">K6/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="150" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="150" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="150" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="150" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="150" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" s="150" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" s="150" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="150">
-        <f t="shared" si="19"/>
-        <v>0.86430027173913038</v>
-      </c>
-      <c r="T22" s="150">
-        <f t="shared" si="19"/>
-        <v>1.6710329341317365</v>
-      </c>
-      <c r="U22" s="150" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="150" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W22" s="150">
-        <f>W6/W3</f>
-        <v>0.82071163688743143</v>
-      </c>
-      <c r="X22" s="7">
-        <f t="shared" ref="X22:Z22" si="20">X6/X3</f>
-        <v>0.52165256994144438</v>
-      </c>
-      <c r="Y22" s="150" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z22" s="150" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="150" t="e">
-        <f t="shared" ref="C23:F23" si="21">C8/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="150" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="150" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="150" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="K23" s="150" t="e">
-        <f t="shared" ref="K23:V23" si="22">K8/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="150" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="150" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="150" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="150" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" s="150" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" s="150" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R23" s="150" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="150">
-        <f t="shared" si="22"/>
-        <v>0.19955842391304346</v>
-      </c>
-      <c r="T23" s="150">
-        <f t="shared" si="22"/>
-        <v>0.28957709580838326</v>
-      </c>
-      <c r="U23" s="150" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V23" s="150" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W23" s="150">
-        <f>W8/W3</f>
-        <v>0.37419166998682157</v>
-      </c>
-      <c r="X23" s="7">
-        <f t="shared" ref="X23:Z23" si="23">X8/X3</f>
-        <v>0.2867404033832141</v>
-      </c>
-      <c r="Y23" s="150" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z23" s="150" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="59" t="e">
-        <f>C16/#REF!-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="59" t="e">
-        <f>D16/C16-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="59" t="e">
-        <f>E16/D16-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="144" t="e">
-        <f>F16/E16-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="59" t="e">
-        <f>G17/F16-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="59">
-        <f>H17/G17-1</f>
-        <v>0.49999999999999978</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4" t="e">
-        <f>O14/K14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="4" t="e">
-        <f>P14/L14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="4" t="e">
-        <f>Q14/M14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="4" t="e">
-        <f>R14/N14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="4" t="e">
-        <f>S14/O14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="4" t="e">
-        <f>T14/P14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="4" t="e">
-        <f>U14/Q14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="150" t="e">
-        <f>V14/R14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" s="150">
-        <f>W14/S14-1</f>
-        <v>4.4107039313463998</v>
-      </c>
-      <c r="X24" s="7">
-        <f>X14/T14-1</f>
-        <v>-0.61223783142065646</v>
-      </c>
-      <c r="Y24" s="150" t="e">
-        <f>Y14/U14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z24" s="150" t="e">
-        <f>Z14/V14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10">
+        <v>35.826000000000001</v>
+      </c>
+      <c r="T19" s="10">
+        <v>36.567</v>
+      </c>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10">
+        <v>52.531999999999996</v>
+      </c>
+      <c r="X19" s="15">
+        <v>155.19900000000001</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>156</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="2" t="e">
+        <f>C18/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="2" t="e">
+        <f>D18/D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="2" t="e">
+        <f>E18/E19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="56" t="e">
+        <f>F18/F19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="K20" s="2" t="e">
+        <f>K18/K19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="2" t="e">
+        <f>L18/L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="2" t="e">
+        <f>M18/M19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="2" t="e">
+        <f>N18/N19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="2" t="e">
+        <f>O18/O19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="2" t="e">
+        <f>P18/P19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" s="2" t="e">
+        <f>Q18/Q19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" s="2" t="e">
+        <f>R18/R19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" s="2">
+        <f>S18/S19</f>
+        <v>-0.48138223636465133</v>
+      </c>
+      <c r="T20" s="2">
+        <f>T18/T19</f>
+        <v>-0.55284819646129024</v>
+      </c>
+      <c r="U20" s="2" t="e">
+        <f>U18/U19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" s="2" t="e">
+        <f>V18/V19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" s="2">
+        <f>W18/W19</f>
+        <v>-1.7763077743089928</v>
+      </c>
+      <c r="X20" s="34">
+        <f>X18/X19</f>
+        <v>-5.0509346065374189E-2</v>
+      </c>
+      <c r="Y20" s="2">
+        <f>Y18/Y19</f>
+        <v>-0.13561528118379126</v>
+      </c>
+      <c r="Z20" s="2">
+        <f>Z18/Z19</f>
+        <v>-0.14962683696008022</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" s="155" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="150" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="154"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="156"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="156"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="157"/>
+      <c r="W21" s="157">
+        <f>88.873+8.895+1.072+8.485</f>
+        <v>107.325</v>
+      </c>
+      <c r="X21" s="158">
+        <f>43.067-13.296</f>
+        <v>29.771000000000001</v>
+      </c>
+      <c r="Y21" s="157"/>
+      <c r="Z21" s="157"/>
+    </row>
+    <row r="22" spans="2:26" s="155" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="154"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="157">
+        <f>W18+W21</f>
+        <v>14.012</v>
+      </c>
+      <c r="X22" s="158">
+        <f>X18+X21</f>
+        <v>21.931999999999992</v>
+      </c>
+      <c r="Y22" s="157"/>
+      <c r="Z22" s="157"/>
+    </row>
+    <row r="23" spans="2:26" s="155" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="150" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="154"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="157"/>
+      <c r="W23" s="157">
+        <f>W22/W19</f>
+        <v>0.26673265818929415</v>
+      </c>
+      <c r="X23" s="158">
+        <f>X22/X19</f>
+        <v>0.14131534352669792</v>
+      </c>
+      <c r="Y23" s="157"/>
+      <c r="Z23" s="157"/>
+    </row>
+    <row r="24" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="43">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H24" s="44">
+        <v>0.84</v>
+      </c>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="126">
+        <v>0.04</v>
+      </c>
+      <c r="X24" s="48">
+        <v>0.11</v>
+      </c>
+      <c r="Y24" s="126">
+        <v>0.16</v>
+      </c>
+      <c r="Z24" s="126">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="51" t="e">
-        <f>C10/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="51" t="e">
-        <f>D10/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="51" t="e">
-        <f>E10/E3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="52" t="e">
-        <f>F10/F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="51">
-        <f>G10/G4</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="51">
-        <f>H10/H4</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="150"/>
-      <c r="W25" s="150"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="150"/>
-      <c r="Z25" s="150"/>
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="e">
+        <f>1-C9/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="3" t="e">
+        <f>1-D9/D7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="3" t="e">
+        <f>1-E9/E7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="6" t="e">
+        <f>1-F9/F7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="K25" s="3" t="e">
+        <f>1-K9/K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="3" t="e">
+        <f>1-L9/L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="3" t="e">
+        <f>1-M9/M7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="3" t="e">
+        <f>1-N9/N7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="3" t="e">
+        <f>1-O9/O7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="3" t="e">
+        <f>1-P9/P7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="3" t="e">
+        <f>1-Q9/Q7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="3" t="e">
+        <f>1-R9/R7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="3">
+        <f>1-S9/S7</f>
+        <v>0.24105525362318847</v>
+      </c>
+      <c r="T25" s="3">
+        <f>1-T9/T7</f>
+        <v>0.7895770958083832</v>
+      </c>
+      <c r="U25" s="3" t="e">
+        <f>1-U9/U7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="38" t="e">
+        <f>1-V9/V7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="38">
+        <f>1-W9/W7</f>
+        <v>0.7741579576450397</v>
+      </c>
+      <c r="X25" s="6">
+        <f>1-X9/X7</f>
+        <v>0.77884189980481455</v>
+      </c>
+      <c r="Y25" s="38" t="e">
+        <f>1-Y9/Y7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="38" t="e">
+        <f>1-Z9/Z7</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="53" t="e">
-        <f>-C10/C9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="53" t="e">
-        <f>-D10/D9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="53" t="e">
-        <f>-E10/E9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="52" t="e">
-        <f>-F10/F9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="51" t="e">
-        <f>-G10/G9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="51" t="e">
-        <f>-H10/H9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="150"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="150"/>
-      <c r="Z26" s="150"/>
+        <v>30</v>
+      </c>
+      <c r="C26" s="4" t="e">
+        <f>C18/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="4" t="e">
+        <f>D18/D7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="4" t="e">
+        <f>E18/E7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="7" t="e">
+        <f>F18/F7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="46">
+        <f>G18/G8</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="46">
+        <f>H18/H8</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4" t="e">
+        <f>K18/K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="4" t="e">
+        <f>L18/L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="4" t="e">
+        <f>M18/M7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="4" t="e">
+        <f>N18/N7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="4" t="e">
+        <f>O18/O7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="4" t="e">
+        <f>P18/P7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="4" t="e">
+        <f>Q18/Q7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="4" t="e">
+        <f>R18/R7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="4">
+        <f>S18/S7</f>
+        <v>-0.97633605072463747</v>
+      </c>
+      <c r="T26" s="4">
+        <f>T18/T7</f>
+        <v>-1.8914670658682637</v>
+      </c>
+      <c r="U26" s="4" t="e">
+        <f>U18/U7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" s="4" t="e">
+        <f>V18/V7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="4">
+        <f>W18/W7</f>
+        <v>-1.4299089766771891</v>
+      </c>
+      <c r="X26" s="7">
+        <f>X18/X7</f>
+        <v>-0.10200390370852322</v>
+      </c>
+      <c r="Y26" s="4" t="e">
+        <f>Y18/Y7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" s="4" t="e">
+        <f>Z18/Z7</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="W27" s="145"/>
-      <c r="Y27" s="145"/>
-      <c r="Z27" s="145"/>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3" t="e">
+        <f>C7/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="3" t="e">
+        <f>D7/C7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="38" t="e">
+        <f>E7/D7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="6" t="e">
+        <f>F7/E7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="47" t="e">
+        <f>G8/F7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="47">
+        <f>H8/G8-1</f>
+        <v>0.48861061072694523</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4" t="e">
+        <f>O7/K7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="4" t="e">
+        <f>P7/L7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="4" t="e">
+        <f>Q7/M7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="4" t="e">
+        <f>R7/N7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="4" t="e">
+        <f>S7/O7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="4" t="e">
+        <f>T7/P7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="4" t="e">
+        <f>U7/Q7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" s="4" t="e">
+        <f>V7/R7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="4">
+        <f>W7/S7-1</f>
+        <v>2.6944067028985503</v>
+      </c>
+      <c r="X27" s="7">
+        <f>X7/T7-1</f>
+        <v>6.1903068862275452</v>
+      </c>
+      <c r="Y27" s="4" t="e">
+        <f>Y7/U7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" s="4" t="e">
+        <f>Z7/V7-1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="W28" s="145"/>
-      <c r="Y28" s="145"/>
-      <c r="Z28" s="145"/>
-    </row>
-    <row r="29" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="146">
-        <f t="shared" ref="C29:E29" si="24">C30+C31</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="146">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="146">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="14">
-        <f>F30+F31</f>
-        <v>149.31299999999999</v>
-      </c>
-      <c r="K29" s="146">
-        <f t="shared" ref="K29" si="25">K30+K31</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="146">
-        <f t="shared" ref="L29" si="26">L30+L31</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="146">
-        <f t="shared" ref="M29" si="27">M30+M31</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="146">
-        <f t="shared" ref="N29" si="28">N30+N31</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="146">
-        <f t="shared" ref="O29" si="29">O30+O31</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="146">
-        <f t="shared" ref="P29" si="30">P30+P31</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="146">
-        <f t="shared" ref="Q29" si="31">Q30+Q31</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="146">
-        <f t="shared" ref="R29" si="32">R30+R31</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="146">
-        <f t="shared" ref="S29" si="33">S30+S31</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="146">
-        <f t="shared" ref="T29" si="34">T30+T31</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="146">
-        <f t="shared" ref="U29" si="35">U30+U31</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="146">
-        <f t="shared" ref="V29" si="36">V30+V31</f>
-        <v>149.31299999999999</v>
-      </c>
-      <c r="W29" s="146">
-        <f t="shared" ref="W29" si="37">W30+W31</f>
-        <v>801.39099999999996</v>
-      </c>
-      <c r="X29" s="14">
-        <f t="shared" ref="X29" si="38">X30+X31</f>
-        <v>830.995</v>
-      </c>
-      <c r="Y29" s="146">
-        <f t="shared" ref="Y29" si="39">Y30+Y31</f>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="146">
-        <f t="shared" ref="Z29" si="40">Z30+Z31</f>
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="4" t="e">
+        <f>C11/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="4" t="e">
+        <f>D11/D7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="4" t="e">
+        <f>E11/E7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="4" t="e">
+        <f>F11/F7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="K28" s="4" t="e">
+        <f>K11/K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="4" t="e">
+        <f>L11/L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="4" t="e">
+        <f>M11/M7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="4" t="e">
+        <f>N11/N7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="4" t="e">
+        <f>O11/O7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="4" t="e">
+        <f>P11/P7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="4" t="e">
+        <f>Q11/Q7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="4" t="e">
+        <f>R11/R7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="4">
+        <f>S11/S7</f>
+        <v>0.24869791666666663</v>
+      </c>
+      <c r="T28" s="4">
+        <f>T11/T7</f>
+        <v>0.47688997005988032</v>
+      </c>
+      <c r="U28" s="4" t="e">
+        <f>U11/U7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="4" t="e">
+        <f>V11/V7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="4">
+        <f>W11/W7</f>
+        <v>0.85062367832296426</v>
+      </c>
+      <c r="X28" s="7">
+        <f>X11/X7</f>
+        <v>0.28726089785296033</v>
+      </c>
+      <c r="Y28" s="4" t="e">
+        <f>Y11/Y7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="4" t="e">
+        <f>Z11/Z7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="4" t="e">
+        <f>C10/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="4" t="e">
+        <f>D10/D7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="4" t="e">
+        <f>E10/E7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="4" t="e">
+        <f>F10/F7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="K29" s="4" t="e">
+        <f>K10/K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="4" t="e">
+        <f>L10/L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="4" t="e">
+        <f>M10/M7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="4" t="e">
+        <f>N10/N7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="4" t="e">
+        <f>O10/O7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="4" t="e">
+        <f>P10/P7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="4" t="e">
+        <f>Q10/Q7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="4" t="e">
+        <f>R10/R7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="4">
+        <f>S10/S7</f>
+        <v>0.86430027173913038</v>
+      </c>
+      <c r="T29" s="4">
+        <f>T10/T7</f>
+        <v>1.6710329341317367</v>
+      </c>
+      <c r="U29" s="4" t="e">
+        <f>U10/U7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" s="4" t="e">
+        <f>V10/V7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="4">
+        <f>W10/W7</f>
+        <v>0.82071163688743143</v>
+      </c>
+      <c r="X29" s="7">
+        <f>X10/X7</f>
+        <v>0.52165256994144438</v>
+      </c>
+      <c r="Y29" s="4" t="e">
+        <f>Y10/Y7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z29" s="4" t="e">
+        <f>Z10/Z7</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="15">
-        <v>45.097999999999999</v>
-      </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="147">
-        <f>F30</f>
-        <v>45.097999999999999</v>
-      </c>
-      <c r="W30" s="147">
-        <v>696.077</v>
-      </c>
-      <c r="X30" s="15">
-        <v>421.07600000000002</v>
-      </c>
-      <c r="Y30" s="147"/>
-      <c r="Z30" s="147"/>
+        <v>132</v>
+      </c>
+      <c r="C30" s="4" t="e">
+        <f>C12/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="4" t="e">
+        <f>D12/D7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="4" t="e">
+        <f>E12/E7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="4" t="e">
+        <f>F12/F7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="K30" s="4" t="e">
+        <f>K12/K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="4" t="e">
+        <f>L12/L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="4" t="e">
+        <f>M12/M7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="4" t="e">
+        <f>N12/N7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="4" t="e">
+        <f>O12/O7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="4" t="e">
+        <f>P12/P7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="4" t="e">
+        <f>Q12/Q7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="4" t="e">
+        <f>R12/R7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="4">
+        <f>S12/S7</f>
+        <v>0.19955842391304346</v>
+      </c>
+      <c r="T30" s="4">
+        <f>T12/T7</f>
+        <v>0.28957709580838326</v>
+      </c>
+      <c r="U30" s="4" t="e">
+        <f>U12/U7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" s="4" t="e">
+        <f>V12/V7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="4">
+        <f>W12/W7</f>
+        <v>0.37419166998682157</v>
+      </c>
+      <c r="X30" s="7">
+        <f>X12/X7</f>
+        <v>0.2867404033832141</v>
+      </c>
+      <c r="Y30" s="4" t="e">
+        <f>Y12/Y7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z30" s="4" t="e">
+        <f>Z12/Z7</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="15">
-        <v>104.215</v>
-      </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="147">
-        <f t="shared" ref="V31:V34" si="41">F31</f>
-        <v>104.215</v>
-      </c>
-      <c r="W31" s="147">
-        <v>105.31399999999999</v>
-      </c>
-      <c r="X31" s="15">
-        <v>409.91899999999998</v>
-      </c>
-      <c r="Y31" s="147"/>
-      <c r="Z31" s="147"/>
+        <v>136</v>
+      </c>
+      <c r="C31" s="59" t="e">
+        <f>C20/#REF!-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="59" t="e">
+        <f>D20/C20-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="59" t="e">
+        <f>E20/D20-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="125" t="e">
+        <f>F20/E20-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="59" t="e">
+        <f>G24/F20-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="59">
+        <f>H24/G24-1</f>
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4" t="e">
+        <f>O18/K18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="4" t="e">
+        <f>P18/L18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="4" t="e">
+        <f>Q18/M18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="4" t="e">
+        <f>R18/N18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="4" t="e">
+        <f>S18/O18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="4" t="e">
+        <f>T18/P18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="4" t="e">
+        <f>U18/Q18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" s="4" t="e">
+        <f>V18/R18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" s="4">
+        <f>W18/S18-1</f>
+        <v>4.4107039313463998</v>
+      </c>
+      <c r="X31" s="7">
+        <f>X18/T18-1</f>
+        <v>-0.61223783142065646</v>
+      </c>
+      <c r="Y31" s="4" t="e">
+        <f>Y18/U18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z31" s="4" t="e">
+        <f>Z18/V18-1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="15">
-        <v>8.3350000000000009</v>
-      </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="147">
-        <f t="shared" si="41"/>
-        <v>8.3350000000000009</v>
-      </c>
-      <c r="W32" s="147">
-        <v>16.757000000000001</v>
-      </c>
-      <c r="X32" s="15">
-        <v>22.233000000000001</v>
-      </c>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="147"/>
+        <v>76</v>
+      </c>
+      <c r="C32" s="51" t="e">
+        <f>C14/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="51" t="e">
+        <f>D14/D7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="51" t="e">
+        <f>E14/E7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="52" t="e">
+        <f>F14/F7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="51">
+        <f>G14/G8</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="51">
+        <f>H14/H8</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="15">
-        <v>24.094999999999999</v>
-      </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="147">
-        <f t="shared" si="41"/>
-        <v>24.094999999999999</v>
-      </c>
-      <c r="W33" s="147">
-        <v>29.567</v>
-      </c>
-      <c r="X33" s="15">
-        <v>28.571999999999999</v>
-      </c>
-      <c r="Y33" s="147"/>
-      <c r="Z33" s="147"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="15">
-        <v>4.0640000000000001</v>
-      </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="147">
-        <f t="shared" si="41"/>
-        <v>4.0640000000000001</v>
-      </c>
-      <c r="W34" s="147">
-        <v>6.7249999999999996</v>
-      </c>
-      <c r="X34" s="15">
-        <v>9.4450000000000003</v>
-      </c>
-      <c r="Y34" s="147"/>
-      <c r="Z34" s="147"/>
-    </row>
-    <row r="35" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="11">
-        <f>SUM(C30:C34)</f>
+        <v>77</v>
+      </c>
+      <c r="C33" s="53" t="e">
+        <f>-C14/C13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="53" t="e">
+        <f>-D14/D13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="53" t="e">
+        <f>-E14/E13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="52" t="e">
+        <f>-F14/F13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="51" t="e">
+        <f>-G14/G13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="51" t="e">
+        <f>-H14/H13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+    </row>
+    <row r="36" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" ref="C36:E36" si="18">C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D35" s="11">
-        <f>SUM(D30:D34)</f>
+      <c r="D36" s="11">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E35" s="11">
-        <f>SUM(E30:E34)</f>
+      <c r="E36" s="11">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F35" s="14">
-        <f>SUM(F30:F34)</f>
-        <v>185.80699999999999</v>
-      </c>
-      <c r="K35" s="11">
-        <f>SUM(K30:K34)</f>
+      <c r="F36" s="14">
+        <f>F37+F38</f>
+        <v>149.31299999999999</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" ref="K36" si="19">K37+K38</f>
         <v>0</v>
       </c>
-      <c r="L35" s="11">
-        <f>SUM(L30:L34)</f>
+      <c r="L36" s="11">
+        <f t="shared" ref="L36" si="20">L37+L38</f>
         <v>0</v>
       </c>
-      <c r="M35" s="11">
-        <f>SUM(M30:M34)</f>
+      <c r="M36" s="11">
+        <f t="shared" ref="M36" si="21">M37+M38</f>
         <v>0</v>
       </c>
-      <c r="N35" s="11">
-        <f>SUM(N30:N34)</f>
+      <c r="N36" s="11">
+        <f t="shared" ref="N36" si="22">N37+N38</f>
         <v>0</v>
       </c>
-      <c r="O35" s="11">
-        <f>SUM(O30:O34)</f>
+      <c r="O36" s="11">
+        <f t="shared" ref="O36" si="23">O37+O38</f>
         <v>0</v>
       </c>
-      <c r="P35" s="11">
-        <f>SUM(P30:P34)</f>
+      <c r="P36" s="11">
+        <f t="shared" ref="P36" si="24">P37+P38</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="11">
-        <f>SUM(Q30:Q34)</f>
+      <c r="Q36" s="11">
+        <f t="shared" ref="Q36" si="25">Q37+Q38</f>
         <v>0</v>
       </c>
-      <c r="R35" s="11">
-        <f>SUM(R30:R34)</f>
+      <c r="R36" s="11">
+        <f t="shared" ref="R36" si="26">R37+R38</f>
         <v>0</v>
       </c>
-      <c r="S35" s="11">
-        <f>SUM(S30:S34)</f>
+      <c r="S36" s="11">
+        <f t="shared" ref="S36" si="27">S37+S38</f>
         <v>0</v>
       </c>
-      <c r="T35" s="11">
-        <f>SUM(T30:T34)</f>
+      <c r="T36" s="11">
+        <f t="shared" ref="T36" si="28">T37+T38</f>
         <v>0</v>
       </c>
-      <c r="U35" s="11">
-        <f>SUM(U30:U34)</f>
+      <c r="U36" s="11">
+        <f t="shared" ref="U36" si="29">U37+U38</f>
         <v>0</v>
       </c>
-      <c r="V35" s="146">
-        <f>SUM(V30:V34)</f>
-        <v>185.80699999999999</v>
-      </c>
-      <c r="W35" s="146">
-        <f>SUM(W30:W34)</f>
-        <v>854.43999999999994</v>
-      </c>
-      <c r="X35" s="14">
-        <f>SUM(X30:X34)</f>
-        <v>891.245</v>
-      </c>
-      <c r="Y35" s="146">
-        <f>SUM(Y30:Y34)</f>
+      <c r="V36" s="11">
+        <f t="shared" ref="V36" si="30">V37+V38</f>
+        <v>149.31299999999999</v>
+      </c>
+      <c r="W36" s="11">
+        <f t="shared" ref="W36" si="31">W37+W38</f>
+        <v>801.39099999999996</v>
+      </c>
+      <c r="X36" s="14">
+        <f t="shared" ref="X36" si="32">X37+X38</f>
+        <v>830.995</v>
+      </c>
+      <c r="Y36" s="11">
+        <f t="shared" ref="Y36" si="33">Y37+Y38</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="146">
-        <f>SUM(Z30:Z34)</f>
+      <c r="Z36" s="11">
+        <f t="shared" ref="Z36" si="34">Z37+Z38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="15">
-        <v>4.7119999999999997</v>
-      </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="147">
-        <f t="shared" ref="V36:V37" si="42">F36</f>
-        <v>4.7119999999999997</v>
-      </c>
-      <c r="W36" s="147">
-        <v>7.5810000000000004</v>
-      </c>
-      <c r="X36" s="15">
-        <v>21.821000000000002</v>
-      </c>
-      <c r="Y36" s="147"/>
-      <c r="Z36" s="147"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="15">
-        <v>5.7729999999999997</v>
+        <v>45.097999999999999</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
@@ -15537,113 +15807,62 @@
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
-      <c r="V37" s="147">
-        <f t="shared" si="42"/>
-        <v>5.7729999999999997</v>
-      </c>
-      <c r="W37" s="147">
-        <v>2.88</v>
+      <c r="V37" s="10">
+        <f>F37</f>
+        <v>45.097999999999999</v>
+      </c>
+      <c r="W37" s="10">
+        <v>696.077</v>
       </c>
       <c r="X37" s="15">
-        <v>2.4489999999999998</v>
-      </c>
-      <c r="Y37" s="147"/>
-      <c r="Z37" s="147"/>
+        <v>421.07600000000002</v>
+      </c>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="11">
-        <f>SUM(C35:C37)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="11">
-        <f>SUM(D35:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <f>SUM(E35:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="14">
-        <f>SUM(F35:F37)</f>
-        <v>196.29199999999997</v>
-      </c>
-      <c r="K38" s="11">
-        <f>SUM(K35:K37)</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <f>SUM(L35:L37)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <f>SUM(M35:M37)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="11">
-        <f>SUM(N35:N37)</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="11">
-        <f>SUM(O35:O37)</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="11">
-        <f>SUM(P35:P37)</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="11">
-        <f>SUM(Q35:Q37)</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="11">
-        <f>SUM(R35:R37)</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="11">
-        <f>SUM(S35:S37)</f>
-        <v>0</v>
-      </c>
-      <c r="T38" s="11">
-        <f>SUM(T35:T37)</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="11">
-        <f>SUM(U35:U37)</f>
-        <v>0</v>
-      </c>
-      <c r="V38" s="146">
-        <f>SUM(V35:V37)</f>
-        <v>196.29199999999997</v>
-      </c>
-      <c r="W38" s="146">
-        <f>SUM(W35:W37)</f>
-        <v>864.90099999999995</v>
-      </c>
-      <c r="X38" s="14">
-        <f>SUM(X35:X37)</f>
-        <v>915.51499999999999</v>
-      </c>
-      <c r="Y38" s="146">
-        <f>SUM(Y35:Y37)</f>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="146">
-        <f>SUM(Z35:Z37)</f>
-        <v>0</v>
-      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="15">
+        <v>104.215</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10">
+        <f t="shared" ref="V38:V41" si="35">F38</f>
+        <v>104.215</v>
+      </c>
+      <c r="W38" s="10">
+        <v>105.31399999999999</v>
+      </c>
+      <c r="X38" s="15">
+        <v>409.91899999999998</v>
+      </c>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="15">
-        <v>6.3369999999999997</v>
+        <v>8.3350000000000009</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -15656,28 +15875,28 @@
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
-      <c r="V39" s="147">
-        <f t="shared" ref="V39:V40" si="43">F39</f>
-        <v>6.3369999999999997</v>
-      </c>
-      <c r="W39" s="147">
-        <v>11.465</v>
+      <c r="V39" s="10">
+        <f t="shared" si="35"/>
+        <v>8.3350000000000009</v>
+      </c>
+      <c r="W39" s="10">
+        <v>16.757000000000001</v>
       </c>
       <c r="X39" s="15">
-        <v>14.595000000000001</v>
-      </c>
-      <c r="Y39" s="147"/>
-      <c r="Z39" s="147"/>
+        <v>22.233000000000001</v>
+      </c>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="15">
-        <v>28.742000000000001</v>
+        <v>24.094999999999999</v>
       </c>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
@@ -15690,328 +15909,665 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
-      <c r="V40" s="147">
-        <f t="shared" si="43"/>
-        <v>28.742000000000001</v>
-      </c>
-      <c r="W40" s="147">
-        <v>34.122</v>
+      <c r="V40" s="10">
+        <f t="shared" si="35"/>
+        <v>24.094999999999999</v>
+      </c>
+      <c r="W40" s="10">
+        <v>29.567</v>
       </c>
       <c r="X40" s="15">
-        <v>49.478000000000002</v>
-      </c>
-      <c r="Y40" s="147"/>
-      <c r="Z40" s="147"/>
-    </row>
-    <row r="41" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="11">
-        <f>SUM(C39:C40)</f>
+        <v>28.571999999999999</v>
+      </c>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="15">
+        <v>4.0640000000000001</v>
+      </c>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10">
+        <f t="shared" si="35"/>
+        <v>4.0640000000000001</v>
+      </c>
+      <c r="W41" s="10">
+        <v>6.7249999999999996</v>
+      </c>
+      <c r="X41" s="15">
+        <v>9.4450000000000003</v>
+      </c>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+    </row>
+    <row r="42" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="11">
+        <f>SUM(C37:C41)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="11">
-        <f>SUM(D39:D40)</f>
+      <c r="D42" s="11">
+        <f>SUM(D37:D41)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="11">
-        <f>SUM(E39:E40)</f>
+      <c r="E42" s="11">
+        <f>SUM(E37:E41)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="14">
-        <f>SUM(F39:F40)</f>
-        <v>35.079000000000001</v>
-      </c>
-      <c r="K41" s="11">
-        <f>SUM(K39:K40)</f>
+      <c r="F42" s="14">
+        <f>SUM(F37:F41)</f>
+        <v>185.80699999999999</v>
+      </c>
+      <c r="K42" s="11">
+        <f t="shared" ref="K42:Z42" si="36">SUM(K37:K41)</f>
         <v>0</v>
       </c>
-      <c r="L41" s="11">
-        <f>SUM(L39:L40)</f>
+      <c r="L42" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M41" s="11">
-        <f>SUM(M39:M40)</f>
+      <c r="M42" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="N41" s="11">
-        <f>SUM(N39:N40)</f>
+      <c r="N42" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O41" s="11">
-        <f>SUM(O39:O40)</f>
+      <c r="O42" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="P41" s="11">
-        <f>SUM(P39:P40)</f>
+      <c r="P42" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="11">
-        <f>SUM(Q39:Q40)</f>
+      <c r="Q42" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="R41" s="11">
-        <f>SUM(R39:R40)</f>
+      <c r="R42" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="S41" s="11">
-        <f>SUM(S39:S40)</f>
+      <c r="S42" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="T41" s="11">
-        <f>SUM(T39:T40)</f>
+      <c r="T42" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="U41" s="11">
-        <f>SUM(U39:U40)</f>
+      <c r="U42" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="V41" s="146">
-        <f>SUM(V39:V40)</f>
-        <v>35.079000000000001</v>
-      </c>
-      <c r="W41" s="146">
-        <f>SUM(W39:W40)</f>
-        <v>45.587000000000003</v>
-      </c>
-      <c r="X41" s="14">
-        <f>SUM(X39:X40)</f>
-        <v>64.073000000000008</v>
-      </c>
-      <c r="Y41" s="146">
-        <f>SUM(Y39:Y40)</f>
+      <c r="V42" s="11">
+        <f t="shared" si="36"/>
+        <v>185.80699999999999</v>
+      </c>
+      <c r="W42" s="11">
+        <f t="shared" si="36"/>
+        <v>854.43999999999994</v>
+      </c>
+      <c r="X42" s="14">
+        <f t="shared" si="36"/>
+        <v>891.245</v>
+      </c>
+      <c r="Y42" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="146">
-        <f>SUM(Z39:Z40)</f>
+      <c r="Z42" s="11">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="15">
-        <v>3.7869999999999999</v>
-      </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="147">
-        <f>F42</f>
-        <v>3.7869999999999999</v>
-      </c>
-      <c r="W42" s="147">
-        <v>10.53</v>
-      </c>
-      <c r="X42" s="15">
-        <v>6.19</v>
-      </c>
-      <c r="Y42" s="147"/>
-      <c r="Z42" s="147"/>
-    </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="11">
-        <f>SUM(C41:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="11">
-        <f>SUM(D41:D42)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="11">
-        <f>SUM(E41:E42)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="14">
-        <f>SUM(F41:F42)</f>
-        <v>38.866</v>
-      </c>
-      <c r="K43" s="11">
-        <f>SUM(K41:K42)</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="11">
-        <f>SUM(L41:L42)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="11">
-        <f>SUM(M41:M42)</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="11">
-        <f>SUM(N41:N42)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="11">
-        <f>SUM(O41:O42)</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="11">
-        <f>SUM(P41:P42)</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="11">
-        <f>SUM(Q41:Q42)</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="11">
-        <f>SUM(R41:R42)</f>
-        <v>0</v>
-      </c>
-      <c r="S43" s="11">
-        <f>SUM(S41:S42)</f>
-        <v>0</v>
-      </c>
-      <c r="T43" s="11">
-        <f>SUM(T41:T42)</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="11">
-        <f>SUM(U41:U42)</f>
-        <v>0</v>
-      </c>
-      <c r="V43" s="146">
-        <f>SUM(V41:V42)</f>
-        <v>38.866</v>
-      </c>
-      <c r="W43" s="146">
-        <f>SUM(W41:W42)</f>
-        <v>56.117000000000004</v>
-      </c>
-      <c r="X43" s="14">
-        <f>SUM(X41:X42)</f>
-        <v>70.263000000000005</v>
-      </c>
-      <c r="Y43" s="146">
-        <f>SUM(Y41:Y42)</f>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="146">
-        <f>SUM(Z41:Z42)</f>
-        <v>0</v>
-      </c>
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="15">
+        <v>4.7119999999999997</v>
+      </c>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10">
+        <f t="shared" ref="V43:V44" si="37">F43</f>
+        <v>4.7119999999999997</v>
+      </c>
+      <c r="W43" s="10">
+        <v>7.5810000000000004</v>
+      </c>
+      <c r="X43" s="15">
+        <v>21.821000000000002</v>
+      </c>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="10">
-        <f>C38-C43</f>
+        <v>25</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="15">
+        <v>5.7729999999999997</v>
+      </c>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10">
+        <f t="shared" si="37"/>
+        <v>5.7729999999999997</v>
+      </c>
+      <c r="W44" s="10">
+        <v>2.88</v>
+      </c>
+      <c r="X44" s="15">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="11">
+        <f>SUM(C42:C44)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="10">
-        <f>D38-D43</f>
+      <c r="D45" s="11">
+        <f>SUM(D42:D44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="10">
-        <f>E38-E43</f>
+      <c r="E45" s="11">
+        <f>SUM(E42:E44)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="15">
-        <f>F38-F43</f>
+      <c r="F45" s="14">
+        <f>SUM(F42:F44)</f>
+        <v>196.29199999999997</v>
+      </c>
+      <c r="K45" s="11">
+        <f t="shared" ref="K45:Z45" si="38">SUM(K42:K44)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="11">
+        <f t="shared" si="38"/>
+        <v>196.29199999999997</v>
+      </c>
+      <c r="W45" s="11">
+        <f t="shared" si="38"/>
+        <v>864.90099999999995</v>
+      </c>
+      <c r="X45" s="14">
+        <f t="shared" si="38"/>
+        <v>915.51499999999999</v>
+      </c>
+      <c r="Y45" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="15">
+        <v>6.3369999999999997</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10">
+        <f t="shared" ref="V46:V47" si="39">F46</f>
+        <v>6.3369999999999997</v>
+      </c>
+      <c r="W46" s="10">
+        <v>11.465</v>
+      </c>
+      <c r="X46" s="15">
+        <v>14.595000000000001</v>
+      </c>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="15">
+        <v>28.742000000000001</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10">
+        <f t="shared" si="39"/>
+        <v>28.742000000000001</v>
+      </c>
+      <c r="W47" s="10">
+        <v>34.122</v>
+      </c>
+      <c r="X47" s="15">
+        <v>49.478000000000002</v>
+      </c>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+    </row>
+    <row r="48" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="11">
+        <f>SUM(C46:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="11">
+        <f>SUM(D46:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <f>SUM(E46:E47)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="14">
+        <f>SUM(F46:F47)</f>
+        <v>35.079000000000001</v>
+      </c>
+      <c r="K48" s="11">
+        <f t="shared" ref="K48:Z48" si="40">SUM(K46:K47)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <f t="shared" si="40"/>
+        <v>35.079000000000001</v>
+      </c>
+      <c r="W48" s="11">
+        <f t="shared" si="40"/>
+        <v>45.587000000000003</v>
+      </c>
+      <c r="X48" s="14">
+        <f t="shared" si="40"/>
+        <v>64.073000000000008</v>
+      </c>
+      <c r="Y48" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="15">
+        <v>3.7869999999999999</v>
+      </c>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10">
+        <f>F49</f>
+        <v>3.7869999999999999</v>
+      </c>
+      <c r="W49" s="10">
+        <v>10.53</v>
+      </c>
+      <c r="X49" s="15">
+        <v>6.19</v>
+      </c>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="11">
+        <f>SUM(C48:C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="11">
+        <f>SUM(D48:D49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <f>SUM(E48:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="14">
+        <f>SUM(F48:F49)</f>
+        <v>38.866</v>
+      </c>
+      <c r="K50" s="11">
+        <f t="shared" ref="K50:Z50" si="41">SUM(K48:K49)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="11">
+        <f t="shared" si="41"/>
+        <v>38.866</v>
+      </c>
+      <c r="W50" s="11">
+        <f t="shared" si="41"/>
+        <v>56.117000000000004</v>
+      </c>
+      <c r="X50" s="14">
+        <f t="shared" si="41"/>
+        <v>70.263000000000005</v>
+      </c>
+      <c r="Y50" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="10">
+        <f>C45-C50</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="10">
+        <f>D45-D50</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <f>E45-E50</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="15">
+        <f>F45-F50</f>
         <v>157.42599999999999</v>
       </c>
-      <c r="K44" s="10">
-        <f>K38-K43</f>
+      <c r="K51" s="10">
+        <f t="shared" ref="K51:Z51" si="42">K45-K50</f>
         <v>0</v>
       </c>
-      <c r="L44" s="10">
-        <f>L38-L43</f>
+      <c r="L51" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="M44" s="10">
-        <f>M38-M43</f>
+      <c r="M51" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N44" s="10">
-        <f>N38-N43</f>
+      <c r="N51" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="O44" s="10">
-        <f>O38-O43</f>
+      <c r="O51" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="P44" s="10">
-        <f>P38-P43</f>
+      <c r="P51" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="10">
-        <f>Q38-Q43</f>
+      <c r="Q51" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="R44" s="10">
-        <f>R38-R43</f>
+      <c r="R51" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="S44" s="10">
-        <f>S38-S43</f>
+      <c r="S51" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="T44" s="10">
-        <f>T38-T43</f>
+      <c r="T51" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="U44" s="10">
-        <f>U38-U43</f>
+      <c r="U51" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="V44" s="147">
-        <f>V38-V43</f>
+      <c r="V51" s="10">
+        <f t="shared" si="42"/>
         <v>157.42599999999999</v>
       </c>
-      <c r="W44" s="147">
-        <f>W38-W43</f>
+      <c r="W51" s="10">
+        <f t="shared" si="42"/>
         <v>808.78399999999999</v>
       </c>
-      <c r="X44" s="15">
-        <f>X38-X43</f>
+      <c r="X51" s="15">
+        <f t="shared" si="42"/>
         <v>845.25199999999995</v>
       </c>
-      <c r="Y44" s="147">
-        <f>Y38-Y43</f>
+      <c r="Y51" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="Z44" s="147">
-        <f>Z38-Z43</f>
+      <c r="Z51" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
-      <c r="V46" s="151"/>
-      <c r="X46" s="16"/>
-    </row>
-    <row r="64" spans="6:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F64" s="40"/>
-      <c r="V64" s="152"/>
-      <c r="X64" s="40"/>
-    </row>
-    <row r="65" spans="6:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F65" s="16"/>
-      <c r="V65" s="151"/>
-      <c r="X65" s="16"/>
+    <row r="53" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="55"/>
+      <c r="X53" s="16"/>
+    </row>
+    <row r="71" spans="6:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="40"/>
+      <c r="X71" s="40"/>
+    </row>
+    <row r="72" spans="6:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="16"/>
+      <c r="X72" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16035,7 +16591,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -16049,14 +16605,156 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="159" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1">
+        <v>2023</v>
+      </c>
+      <c r="C1">
+        <v>2024</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160">
+        <v>63.954999999999998</v>
+      </c>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160">
+        <v>6.2220000000000004</v>
+      </c>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160">
+        <v>4.4989999999999997</v>
+      </c>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160">
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160">
+        <v>8.3960000000000008</v>
+      </c>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="160">
+        <f t="shared" ref="F7:J7" si="0">SUM(F3:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="160">
+        <f t="shared" si="0"/>
+        <v>10.687999999999999</v>
+      </c>
+      <c r="H7" s="160">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="160">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="160">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="160">
+        <f>SUM(K3:K6)</f>
+        <v>76.849999999999994</v>
+      </c>
+      <c r="L7" s="160">
+        <f>SUM(L3:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="160">
+        <f>SUM(M3:M6)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16083,26 +16781,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="18"/>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
         <v>52</v>
-      </c>
-      <c r="M2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -16112,7 +16810,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -16123,7 +16821,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -24418,25 +25116,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="134" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="142"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -24456,22 +25154,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="J3" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="K3" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="L3" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="M3" s="69" t="s">
         <v>98</v>
-      </c>
-      <c r="M3" s="69" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -24811,7 +25509,7 @@
       </c>
       <c r="H15" s="81"/>
       <c r="I15" s="82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" s="82">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
@@ -24843,10 +25541,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="138"/>
+      <c r="H17" s="143" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="144"/>
       <c r="M17" s="85"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -24854,8 +25552,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
       <c r="M18" s="85"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -24864,7 +25562,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I19" s="123" t="e">
         <f>AVERAGE(D:D)</f>
@@ -24878,7 +25576,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I20" s="123" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
@@ -24892,7 +25590,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I21" s="123" t="e">
         <f>MEDIAN(D:D)</f>
@@ -24906,7 +25604,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I22" s="123" t="e">
         <f>MODE(D:D)</f>
@@ -24920,7 +25618,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I23" s="123" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
@@ -24934,7 +25632,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I24" s="123" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
@@ -24948,7 +25646,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I25" s="124" t="e">
         <f>KURT(D:D)</f>
@@ -24962,7 +25660,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I26" s="124" t="e">
         <f>SKEW(D:D)</f>
@@ -24976,7 +25674,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I27" s="123" t="e">
         <f>I29-I28</f>
@@ -24990,7 +25688,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I28" s="123" t="e">
         <f>MIN(D:D)</f>
@@ -25004,7 +25702,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I29" s="123" t="e">
         <f>MAX(D:D)</f>
@@ -25018,7 +25716,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I30" s="124" t="e">
         <f>SUM(D:D)</f>
@@ -25032,7 +25730,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I31" s="64">
         <f>COUNT(D:D)</f>
@@ -25055,16 +25753,16 @@
       </c>
       <c r="H33" s="90"/>
       <c r="I33" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="K33" s="91" t="s">
+      <c r="L33" s="92" t="s">
         <v>114</v>
-      </c>
-      <c r="L33" s="92" t="s">
-        <v>115</v>
       </c>
       <c r="M33" s="85"/>
     </row>
@@ -25074,7 +25772,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I34" s="79" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
@@ -25100,7 +25798,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I35" s="79" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
@@ -25126,7 +25824,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="82">
         <v>0</v>
@@ -25163,22 +25861,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="91" t="s">
+      <c r="J38" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="J38" s="91" t="s">
+      <c r="K38" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="91" t="s">
+      <c r="L38" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="91" t="s">
+      <c r="M38" s="92" t="s">
         <v>123</v>
-      </c>
-      <c r="M38" s="92" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -25278,14 +25976,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="142"/>
-      <c r="M43" s="143"/>
+      <c r="H43" s="147" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
@@ -25694,7 +26392,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H60" s="112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I60" s="113"/>
     </row>
@@ -25704,7 +26402,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I61" s="115"/>
     </row>
@@ -25721,7 +26419,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I63" s="117"/>
     </row>
@@ -25731,7 +26429,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H64" s="118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I64" s="119">
         <f>I63*(1-I60)</f>
@@ -25744,7 +26442,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H65" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I65" s="120">
         <f>I63*(1+I61)</f>

--- a/Business - Technology Services/ALAB.xlsx
+++ b/Business - Technology Services/ALAB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C54C3-2DF6-4392-8E74-92713D6C536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8B022C-CBFF-4116-B938-CB23C4E20F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1890,6 +1890,29 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1946,29 +1969,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -13202,7 +13202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -13595,20 +13595,20 @@
       <c r="E17" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="131" t="s">
+      <c r="L17" s="146" t="s">
         <v>209</v>
       </c>
-      <c r="M17" s="132"/>
-      <c r="N17" s="133"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="148"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="50"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="136"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="151"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -13618,18 +13618,18 @@
         <f>C15/(C17*100)</f>
         <v>1.202380952380953</v>
       </c>
-      <c r="L19" s="134"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="136"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="151"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="136"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="151"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -13639,18 +13639,18 @@
         <f>Model!H8/Model!G8-1</f>
         <v>0.48861061072694523</v>
       </c>
-      <c r="L21" s="134"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="136"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="151"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="136"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="151"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13660,9 +13660,9 @@
         <f>Model!E10</f>
         <v>0</v>
       </c>
-      <c r="L23" s="134"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="136"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="151"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -13672,9 +13672,9 @@
         <f>Model!X25</f>
         <v>0.77884189980481455</v>
       </c>
-      <c r="L24" s="134"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="136"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="151"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -13684,18 +13684,18 @@
         <f>Model!X26</f>
         <v>-0.10200390370852322</v>
       </c>
-      <c r="L25" s="134"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="136"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="151"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="136"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="150"/>
+      <c r="N26" s="151"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -13707,9 +13707,9 @@
       <c r="E27" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="134"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="136"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="151"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -13721,9 +13721,9 @@
       <c r="E28" t="s">
         <v>210</v>
       </c>
-      <c r="L28" s="137"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="139"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="154"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -13792,168 +13792,168 @@
       <c r="C36" s="23"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="163" t="s">
+      <c r="E43" s="144" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="163" t="s">
+      <c r="F43" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="G43" s="164" t="s">
+      <c r="G43" s="145" t="s">
         <v>186</v>
       </c>
-      <c r="H43" s="164" t="s">
+      <c r="H43" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="I43" s="164">
+      <c r="I43" s="145">
         <v>1974</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="163" t="s">
+      <c r="E44" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="163" t="s">
+      <c r="F44" s="144" t="s">
         <v>189</v>
       </c>
-      <c r="G44" s="164" t="s">
+      <c r="G44" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="H44" s="164" t="s">
+      <c r="H44" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="I44" s="164">
+      <c r="I44" s="145">
         <v>1979</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="163" t="s">
+      <c r="E45" s="144" t="s">
         <v>191</v>
       </c>
-      <c r="F45" s="163" t="s">
+      <c r="F45" s="144" t="s">
         <v>192</v>
       </c>
-      <c r="G45" s="164" t="s">
+      <c r="G45" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="H45" s="164" t="s">
+      <c r="H45" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="I45" s="164">
+      <c r="I45" s="145">
         <v>1975</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="163" t="s">
+      <c r="E46" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="F46" s="163" t="s">
+      <c r="F46" s="144" t="s">
         <v>194</v>
       </c>
-      <c r="G46" s="164" t="s">
+      <c r="G46" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="H46" s="164" t="s">
+      <c r="H46" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="I46" s="164" t="s">
+      <c r="I46" s="145" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="163" t="s">
+      <c r="E47" s="144" t="s">
         <v>195</v>
       </c>
-      <c r="F47" s="163" t="s">
+      <c r="F47" s="144" t="s">
         <v>196</v>
       </c>
-      <c r="G47" s="164" t="s">
+      <c r="G47" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="H47" s="164" t="s">
+      <c r="H47" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="164">
+      <c r="I47" s="145">
         <v>1966</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="163" t="s">
+      <c r="E48" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="F48" s="163" t="s">
+      <c r="F48" s="144" t="s">
         <v>198</v>
       </c>
-      <c r="G48" s="164" t="s">
+      <c r="G48" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="H48" s="164" t="s">
+      <c r="H48" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="I48" s="164" t="s">
+      <c r="I48" s="145" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="163" t="s">
+      <c r="E49" s="144" t="s">
         <v>199</v>
       </c>
-      <c r="F49" s="163" t="s">
+      <c r="F49" s="144" t="s">
         <v>200</v>
       </c>
-      <c r="G49" s="164" t="s">
+      <c r="G49" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="H49" s="164" t="s">
+      <c r="H49" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="I49" s="164" t="s">
+      <c r="I49" s="145" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="163" t="s">
+      <c r="E50" s="144" t="s">
         <v>201</v>
       </c>
-      <c r="F50" s="163" t="s">
+      <c r="F50" s="144" t="s">
         <v>202</v>
       </c>
-      <c r="G50" s="164" t="s">
+      <c r="G50" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="H50" s="164" t="s">
+      <c r="H50" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="I50" s="164" t="s">
+      <c r="I50" s="145" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="163" t="s">
+      <c r="E51" s="144" t="s">
         <v>203</v>
       </c>
-      <c r="F51" s="163" t="s">
+      <c r="F51" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="G51" s="164" t="s">
+      <c r="G51" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="H51" s="164" t="s">
+      <c r="H51" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="I51" s="164" t="s">
+      <c r="I51" s="145" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="163" t="s">
+      <c r="E52" s="144" t="s">
         <v>205</v>
       </c>
-      <c r="F52" s="163" t="s">
+      <c r="F52" s="144" t="s">
         <v>206</v>
       </c>
-      <c r="G52" s="162"/>
-      <c r="H52" s="162"/>
-      <c r="I52" s="162"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13969,11 +13969,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14061,18 +14061,18 @@
       <c r="B3" t="s">
         <v>180</v>
       </c>
-      <c r="S3" s="160">
+      <c r="S3" s="141">
         <v>9.734</v>
       </c>
-      <c r="T3" s="160">
+      <c r="T3" s="141">
         <v>0.56899999999999995</v>
       </c>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160">
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141">
         <v>59.573</v>
       </c>
-      <c r="X3" s="161">
+      <c r="X3" s="142">
         <v>63.954999999999998</v>
       </c>
     </row>
@@ -14080,18 +14080,18 @@
       <c r="B4" t="s">
         <v>181</v>
       </c>
-      <c r="S4" s="160">
+      <c r="S4" s="141">
         <v>5.37</v>
       </c>
-      <c r="T4" s="160">
+      <c r="T4" s="141">
         <v>6.2220000000000004</v>
       </c>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160">
+      <c r="U4" s="141"/>
+      <c r="V4" s="141"/>
+      <c r="W4" s="141">
         <v>0</v>
       </c>
-      <c r="X4" s="161">
+      <c r="X4" s="142">
         <v>4.4989999999999997</v>
       </c>
     </row>
@@ -14099,18 +14099,18 @@
       <c r="B5" t="s">
         <v>182</v>
       </c>
-      <c r="S5" s="160">
+      <c r="S5" s="141">
         <v>2.5070000000000001</v>
       </c>
-      <c r="T5" s="160">
+      <c r="T5" s="141">
         <v>2.4119999999999999</v>
       </c>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160">
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141">
         <v>0.85699999999999998</v>
       </c>
-      <c r="X5" s="161">
+      <c r="X5" s="142">
         <v>0</v>
       </c>
     </row>
@@ -14118,18 +14118,18 @@
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="160">
+      <c r="S6" s="141">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="T6" s="160">
+      <c r="T6" s="141">
         <v>1.4850000000000001</v>
       </c>
-      <c r="U6" s="160"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="160">
+      <c r="U6" s="141"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="141">
         <v>4.8280000000000003</v>
       </c>
-      <c r="X6" s="161">
+      <c r="X6" s="142">
         <v>8.3960000000000008</v>
       </c>
     </row>
@@ -14806,168 +14806,168 @@
       <c r="G20" s="57"/>
       <c r="H20" s="58"/>
       <c r="K20" s="2" t="e">
-        <f>K18/K19</f>
+        <f t="shared" ref="K20:Z20" si="18">K18/K19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L20" s="2" t="e">
-        <f>L18/L19</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M20" s="2" t="e">
-        <f>M18/M19</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="2" t="e">
-        <f>N18/N19</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="2" t="e">
-        <f>O18/O19</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="2" t="e">
-        <f>P18/P19</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" s="2" t="e">
-        <f>Q18/Q19</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R20" s="2" t="e">
-        <f>R18/R19</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S20" s="2">
-        <f>S18/S19</f>
+        <f t="shared" si="18"/>
         <v>-0.48138223636465133</v>
       </c>
       <c r="T20" s="2">
-        <f>T18/T19</f>
+        <f t="shared" si="18"/>
         <v>-0.55284819646129024</v>
       </c>
       <c r="U20" s="2" t="e">
-        <f>U18/U19</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V20" s="2" t="e">
-        <f>V18/V19</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W20" s="2">
-        <f>W18/W19</f>
+        <f t="shared" si="18"/>
         <v>-1.7763077743089928</v>
       </c>
       <c r="X20" s="34">
-        <f>X18/X19</f>
+        <f t="shared" si="18"/>
         <v>-5.0509346065374189E-2</v>
       </c>
       <c r="Y20" s="2">
-        <f>Y18/Y19</f>
+        <f t="shared" si="18"/>
         <v>-0.13561528118379126</v>
       </c>
       <c r="Z20" s="2">
-        <f>Z18/Z19</f>
+        <f t="shared" si="18"/>
         <v>-0.14962683696008022</v>
       </c>
     </row>
-    <row r="21" spans="2:26" s="155" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="150" t="s">
+    <row r="21" spans="2:26" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="154"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="156"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="156"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="157">
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="135"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="138"/>
+      <c r="W21" s="138">
         <f>88.873+8.895+1.072+8.485</f>
         <v>107.325</v>
       </c>
-      <c r="X21" s="158">
+      <c r="X21" s="139">
         <f>43.067-13.296</f>
         <v>29.771000000000001</v>
       </c>
-      <c r="Y21" s="157"/>
-      <c r="Z21" s="157"/>
-    </row>
-    <row r="22" spans="2:26" s="155" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="150" t="s">
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="138"/>
+    </row>
+    <row r="22" spans="2:26" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="154"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="157">
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="135"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="138"/>
+      <c r="W22" s="138">
         <f>W18+W21</f>
         <v>14.012</v>
       </c>
-      <c r="X22" s="158">
+      <c r="X22" s="139">
         <f>X18+X21</f>
         <v>21.931999999999992</v>
       </c>
-      <c r="Y22" s="157"/>
-      <c r="Z22" s="157"/>
-    </row>
-    <row r="23" spans="2:26" s="155" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="150" t="s">
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="138"/>
+    </row>
+    <row r="23" spans="2:26" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="154"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="156"/>
-      <c r="Q23" s="156"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="157"/>
-      <c r="W23" s="157">
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="135"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="138"/>
+      <c r="W23" s="138">
         <f>W22/W19</f>
         <v>0.26673265818929415</v>
       </c>
-      <c r="X23" s="158">
+      <c r="X23" s="139">
         <f>X22/X19</f>
         <v>0.14131534352669792</v>
       </c>
-      <c r="Y23" s="157"/>
-      <c r="Z23" s="157"/>
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="138"/>
     </row>
     <row r="24" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
@@ -15031,67 +15031,67 @@
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
       <c r="K25" s="3" t="e">
-        <f>1-K9/K7</f>
+        <f t="shared" ref="K25:Z25" si="19">1-K9/K7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="3" t="e">
-        <f>1-L9/L7</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="3" t="e">
-        <f>1-M9/M7</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="3" t="e">
-        <f>1-N9/N7</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="3" t="e">
-        <f>1-O9/O7</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="3" t="e">
-        <f>1-P9/P7</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="3" t="e">
-        <f>1-Q9/Q7</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="3" t="e">
-        <f>1-R9/R7</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="3">
-        <f>1-S9/S7</f>
+        <f t="shared" si="19"/>
         <v>0.24105525362318847</v>
       </c>
       <c r="T25" s="3">
-        <f>1-T9/T7</f>
+        <f t="shared" si="19"/>
         <v>0.7895770958083832</v>
       </c>
       <c r="U25" s="3" t="e">
-        <f>1-U9/U7</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V25" s="38" t="e">
-        <f>1-V9/V7</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W25" s="38">
-        <f>1-W9/W7</f>
+        <f t="shared" si="19"/>
         <v>0.7741579576450397</v>
       </c>
       <c r="X25" s="6">
-        <f>1-X9/X7</f>
+        <f t="shared" si="19"/>
         <v>0.77884189980481455</v>
       </c>
       <c r="Y25" s="38" t="e">
-        <f>1-Y9/Y7</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z25" s="38" t="e">
-        <f>1-Z9/Z7</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15124,67 +15124,67 @@
         <v>0</v>
       </c>
       <c r="K26" s="4" t="e">
-        <f>K18/K7</f>
+        <f t="shared" ref="K26:Z26" si="20">K18/K7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="4" t="e">
-        <f>L18/L7</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="4" t="e">
-        <f>M18/M7</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="4" t="e">
-        <f>N18/N7</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="4" t="e">
-        <f>O18/O7</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="4" t="e">
-        <f>P18/P7</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="4" t="e">
-        <f>Q18/Q7</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="4" t="e">
-        <f>R18/R7</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="4">
-        <f>S18/S7</f>
+        <f t="shared" si="20"/>
         <v>-0.97633605072463747</v>
       </c>
       <c r="T26" s="4">
-        <f>T18/T7</f>
+        <f t="shared" si="20"/>
         <v>-1.8914670658682637</v>
       </c>
       <c r="U26" s="4" t="e">
-        <f>U18/U7</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V26" s="4" t="e">
-        <f>V18/V7</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W26" s="4">
-        <f>W18/W7</f>
+        <f t="shared" si="20"/>
         <v>-1.4299089766771891</v>
       </c>
       <c r="X26" s="7">
-        <f>X18/X7</f>
+        <f t="shared" si="20"/>
         <v>-0.10200390370852322</v>
       </c>
       <c r="Y26" s="4" t="e">
-        <f>Y18/Y7</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z26" s="4" t="e">
-        <f>Z18/Z7</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15221,51 +15221,51 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4" t="e">
-        <f>O7/K7-1</f>
+        <f t="shared" ref="O27:Z27" si="21">O7/K7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="4" t="e">
-        <f>P7/L7-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="4" t="e">
-        <f>Q7/M7-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="4" t="e">
-        <f>R7/N7-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="4" t="e">
-        <f>S7/O7-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="4" t="e">
-        <f>T7/P7-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="4" t="e">
-        <f>U7/Q7-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V27" s="4" t="e">
-        <f>V7/R7-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27" s="4">
-        <f>W7/S7-1</f>
+        <f t="shared" si="21"/>
         <v>2.6944067028985503</v>
       </c>
       <c r="X27" s="7">
-        <f>X7/T7-1</f>
+        <f t="shared" si="21"/>
         <v>6.1903068862275452</v>
       </c>
       <c r="Y27" s="4" t="e">
-        <f>Y7/U7-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z27" s="4" t="e">
-        <f>Z7/V7-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15292,67 +15292,67 @@
       <c r="G28" s="122"/>
       <c r="H28" s="122"/>
       <c r="K28" s="4" t="e">
-        <f>K11/K7</f>
+        <f t="shared" ref="K28:Z28" si="22">K11/K7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="4" t="e">
-        <f>L11/L7</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="4" t="e">
-        <f>M11/M7</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="4" t="e">
-        <f>N11/N7</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="4" t="e">
-        <f>O11/O7</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="4" t="e">
-        <f>P11/P7</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="4" t="e">
-        <f>Q11/Q7</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="4" t="e">
-        <f>R11/R7</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="4">
-        <f>S11/S7</f>
+        <f t="shared" si="22"/>
         <v>0.24869791666666663</v>
       </c>
       <c r="T28" s="4">
-        <f>T11/T7</f>
+        <f t="shared" si="22"/>
         <v>0.47688997005988032</v>
       </c>
       <c r="U28" s="4" t="e">
-        <f>U11/U7</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V28" s="4" t="e">
-        <f>V11/V7</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W28" s="4">
-        <f>W11/W7</f>
+        <f t="shared" si="22"/>
         <v>0.85062367832296426</v>
       </c>
       <c r="X28" s="7">
-        <f>X11/X7</f>
+        <f t="shared" si="22"/>
         <v>0.28726089785296033</v>
       </c>
       <c r="Y28" s="4" t="e">
-        <f>Y11/Y7</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z28" s="4" t="e">
-        <f>Z11/Z7</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15379,67 +15379,67 @@
       <c r="G29" s="122"/>
       <c r="H29" s="122"/>
       <c r="K29" s="4" t="e">
-        <f>K10/K7</f>
+        <f t="shared" ref="K29:Z29" si="23">K10/K7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L29" s="4" t="e">
-        <f>L10/L7</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="4" t="e">
-        <f>M10/M7</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="4" t="e">
-        <f>N10/N7</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="4" t="e">
-        <f>O10/O7</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="4" t="e">
-        <f>P10/P7</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="4" t="e">
-        <f>Q10/Q7</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="4" t="e">
-        <f>R10/R7</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="4">
-        <f>S10/S7</f>
+        <f t="shared" si="23"/>
         <v>0.86430027173913038</v>
       </c>
       <c r="T29" s="4">
-        <f>T10/T7</f>
+        <f t="shared" si="23"/>
         <v>1.6710329341317367</v>
       </c>
       <c r="U29" s="4" t="e">
-        <f>U10/U7</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V29" s="4" t="e">
-        <f>V10/V7</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W29" s="4">
-        <f>W10/W7</f>
+        <f t="shared" si="23"/>
         <v>0.82071163688743143</v>
       </c>
       <c r="X29" s="7">
-        <f>X10/X7</f>
+        <f t="shared" si="23"/>
         <v>0.52165256994144438</v>
       </c>
       <c r="Y29" s="4" t="e">
-        <f>Y10/Y7</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z29" s="4" t="e">
-        <f>Z10/Z7</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15466,67 +15466,67 @@
       <c r="G30" s="122"/>
       <c r="H30" s="122"/>
       <c r="K30" s="4" t="e">
-        <f>K12/K7</f>
+        <f t="shared" ref="K30:Z30" si="24">K12/K7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="4" t="e">
-        <f>L12/L7</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="4" t="e">
-        <f>M12/M7</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="4" t="e">
-        <f>N12/N7</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="4" t="e">
-        <f>O12/O7</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="4" t="e">
-        <f>P12/P7</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="4" t="e">
-        <f>Q12/Q7</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="4" t="e">
-        <f>R12/R7</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="4">
-        <f>S12/S7</f>
+        <f t="shared" si="24"/>
         <v>0.19955842391304346</v>
       </c>
       <c r="T30" s="4">
-        <f>T12/T7</f>
+        <f t="shared" si="24"/>
         <v>0.28957709580838326</v>
       </c>
       <c r="U30" s="4" t="e">
-        <f>U12/U7</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V30" s="4" t="e">
-        <f>V12/V7</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W30" s="4">
-        <f>W12/W7</f>
+        <f t="shared" si="24"/>
         <v>0.37419166998682157</v>
       </c>
       <c r="X30" s="7">
-        <f>X12/X7</f>
+        <f t="shared" si="24"/>
         <v>0.2867404033832141</v>
       </c>
       <c r="Y30" s="4" t="e">
-        <f>Y12/Y7</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z30" s="4" t="e">
-        <f>Z12/Z7</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15563,51 +15563,51 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4" t="e">
-        <f>O18/K18-1</f>
+        <f t="shared" ref="O31:Z31" si="25">O18/K18-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="4" t="e">
-        <f>P18/L18-1</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="4" t="e">
-        <f>Q18/M18-1</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="4" t="e">
-        <f>R18/N18-1</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="4" t="e">
-        <f>S18/O18-1</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="4" t="e">
-        <f>T18/P18-1</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="4" t="e">
-        <f>U18/Q18-1</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V31" s="4" t="e">
-        <f>V18/R18-1</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W31" s="4">
-        <f>W18/S18-1</f>
+        <f t="shared" si="25"/>
         <v>4.4107039313463998</v>
       </c>
       <c r="X31" s="7">
-        <f>X18/T18-1</f>
+        <f t="shared" si="25"/>
         <v>-0.61223783142065646</v>
       </c>
       <c r="Y31" s="4" t="e">
-        <f>Y18/U18-1</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z31" s="4" t="e">
-        <f>Z18/V18-1</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15661,27 +15661,27 @@
         <v>77</v>
       </c>
       <c r="C33" s="53" t="e">
-        <f>-C14/C13</f>
+        <f t="shared" ref="C33:H33" si="26">-C14/C13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D33" s="53" t="e">
-        <f>-D14/D13</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="53" t="e">
-        <f>-E14/E13</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="52" t="e">
-        <f>-F14/F13</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G33" s="51" t="e">
-        <f>-G14/G13</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="51" t="e">
-        <f>-H14/H13</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="4"/>
@@ -15706,15 +15706,15 @@
         <v>37</v>
       </c>
       <c r="C36" s="11">
-        <f t="shared" ref="C36:E36" si="18">C37+C38</f>
+        <f t="shared" ref="C36:E36" si="27">C37+C38</f>
         <v>0</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F36" s="14">
@@ -15722,67 +15722,67 @@
         <v>149.31299999999999</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" ref="K36" si="19">K37+K38</f>
+        <f t="shared" ref="K36" si="28">K37+K38</f>
         <v>0</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" ref="L36" si="20">L37+L38</f>
+        <f t="shared" ref="L36" si="29">L37+L38</f>
         <v>0</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" ref="M36" si="21">M37+M38</f>
+        <f t="shared" ref="M36" si="30">M37+M38</f>
         <v>0</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" ref="N36" si="22">N37+N38</f>
+        <f t="shared" ref="N36" si="31">N37+N38</f>
         <v>0</v>
       </c>
       <c r="O36" s="11">
-        <f t="shared" ref="O36" si="23">O37+O38</f>
+        <f t="shared" ref="O36" si="32">O37+O38</f>
         <v>0</v>
       </c>
       <c r="P36" s="11">
-        <f t="shared" ref="P36" si="24">P37+P38</f>
+        <f t="shared" ref="P36" si="33">P37+P38</f>
         <v>0</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" ref="Q36" si="25">Q37+Q38</f>
+        <f t="shared" ref="Q36" si="34">Q37+Q38</f>
         <v>0</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" ref="R36" si="26">R37+R38</f>
+        <f t="shared" ref="R36" si="35">R37+R38</f>
         <v>0</v>
       </c>
       <c r="S36" s="11">
-        <f t="shared" ref="S36" si="27">S37+S38</f>
+        <f t="shared" ref="S36" si="36">S37+S38</f>
         <v>0</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" ref="T36" si="28">T37+T38</f>
+        <f t="shared" ref="T36" si="37">T37+T38</f>
         <v>0</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" ref="U36" si="29">U37+U38</f>
+        <f t="shared" ref="U36" si="38">U37+U38</f>
         <v>0</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" ref="V36" si="30">V37+V38</f>
+        <f t="shared" ref="V36" si="39">V37+V38</f>
         <v>149.31299999999999</v>
       </c>
       <c r="W36" s="11">
-        <f t="shared" ref="W36" si="31">W37+W38</f>
+        <f t="shared" ref="W36" si="40">W37+W38</f>
         <v>801.39099999999996</v>
       </c>
       <c r="X36" s="14">
-        <f t="shared" ref="X36" si="32">X37+X38</f>
+        <f t="shared" ref="X36" si="41">X37+X38</f>
         <v>830.995</v>
       </c>
       <c r="Y36" s="11">
-        <f t="shared" ref="Y36" si="33">Y37+Y38</f>
+        <f t="shared" ref="Y36" si="42">Y37+Y38</f>
         <v>0</v>
       </c>
       <c r="Z36" s="11">
-        <f t="shared" ref="Z36" si="34">Z37+Z38</f>
+        <f t="shared" ref="Z36" si="43">Z37+Z38</f>
         <v>0</v>
       </c>
     </row>
@@ -15842,7 +15842,7 @@
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10">
-        <f t="shared" ref="V38:V41" si="35">F38</f>
+        <f t="shared" ref="V38:V41" si="44">F38</f>
         <v>104.215</v>
       </c>
       <c r="W38" s="10">
@@ -15876,7 +15876,7 @@
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>8.3350000000000009</v>
       </c>
       <c r="W39" s="10">
@@ -15910,7 +15910,7 @@
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>24.094999999999999</v>
       </c>
       <c r="W40" s="10">
@@ -15944,7 +15944,7 @@
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>4.0640000000000001</v>
       </c>
       <c r="W41" s="10">
@@ -15977,67 +15977,67 @@
         <v>185.80699999999999</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" ref="K42:Z42" si="36">SUM(K37:K41)</f>
+        <f t="shared" ref="K42:Z42" si="45">SUM(K37:K41)</f>
         <v>0</v>
       </c>
       <c r="L42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="O42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="P42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Q42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="R42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="S42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="T42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="U42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>185.80699999999999</v>
       </c>
       <c r="W42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>854.43999999999994</v>
       </c>
       <c r="X42" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>891.245</v>
       </c>
       <c r="Y42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Z42" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -16063,7 +16063,7 @@
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10">
-        <f t="shared" ref="V43:V44" si="37">F43</f>
+        <f t="shared" ref="V43:V44" si="46">F43</f>
         <v>4.7119999999999997</v>
       </c>
       <c r="W43" s="10">
@@ -16097,7 +16097,7 @@
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>5.7729999999999997</v>
       </c>
       <c r="W44" s="10">
@@ -16130,67 +16130,67 @@
         <v>196.29199999999997</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" ref="K45:Z45" si="38">SUM(K42:K44)</f>
+        <f t="shared" ref="K45:Z45" si="47">SUM(K42:K44)</f>
         <v>0</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="M45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="U45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>196.29199999999997</v>
       </c>
       <c r="W45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>864.90099999999995</v>
       </c>
       <c r="X45" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>915.51499999999999</v>
       </c>
       <c r="Y45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -16216,7 +16216,7 @@
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10">
-        <f t="shared" ref="V46:V47" si="39">F46</f>
+        <f t="shared" ref="V46:V47" si="48">F46</f>
         <v>6.3369999999999997</v>
       </c>
       <c r="W46" s="10">
@@ -16250,7 +16250,7 @@
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>28.742000000000001</v>
       </c>
       <c r="W47" s="10">
@@ -16283,67 +16283,67 @@
         <v>35.079000000000001</v>
       </c>
       <c r="K48" s="11">
-        <f t="shared" ref="K48:Z48" si="40">SUM(K46:K47)</f>
+        <f t="shared" ref="K48:Z48" si="49">SUM(K46:K47)</f>
         <v>0</v>
       </c>
       <c r="L48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>35.079000000000001</v>
       </c>
       <c r="W48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>45.587000000000003</v>
       </c>
       <c r="X48" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>64.073000000000008</v>
       </c>
       <c r="Y48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z48" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -16402,67 +16402,67 @@
         <v>38.866</v>
       </c>
       <c r="K50" s="11">
-        <f t="shared" ref="K50:Z50" si="41">SUM(K48:K49)</f>
+        <f t="shared" ref="K50:Z50" si="50">SUM(K48:K49)</f>
         <v>0</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="R50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="S50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="U50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>38.866</v>
       </c>
       <c r="W50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>56.117000000000004</v>
       </c>
       <c r="X50" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>70.263000000000005</v>
       </c>
       <c r="Y50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Z50" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -16487,67 +16487,67 @@
         <v>157.42599999999999</v>
       </c>
       <c r="K51" s="10">
-        <f t="shared" ref="K51:Z51" si="42">K45-K50</f>
+        <f t="shared" ref="K51:Z51" si="51">K45-K50</f>
         <v>0</v>
       </c>
       <c r="L51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Q51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="R51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="S51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="T51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="U51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="V51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>157.42599999999999</v>
       </c>
       <c r="W51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>808.78399999999999</v>
       </c>
       <c r="X51" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>845.25199999999995</v>
       </c>
       <c r="Y51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Z51" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -16617,7 +16617,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="140" t="s">
         <v>179</v>
       </c>
       <c r="B1">
@@ -16655,101 +16655,101 @@
       <c r="A3" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160">
+      <c r="F3" s="141"/>
+      <c r="G3" s="141">
         <v>0.56899999999999995</v>
       </c>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160">
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141">
         <v>63.954999999999998</v>
       </c>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160">
+      <c r="F4" s="141"/>
+      <c r="G4" s="141">
         <v>6.2220000000000004</v>
       </c>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160">
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141">
         <v>4.4989999999999997</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160">
+      <c r="F5" s="141"/>
+      <c r="G5" s="141">
         <v>2.4119999999999999</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160">
+      <c r="F6" s="141"/>
+      <c r="G6" s="141">
         <v>1.4850000000000001</v>
       </c>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160">
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141">
         <v>8.3960000000000008</v>
       </c>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="160">
+      <c r="F7" s="141">
         <f t="shared" ref="F7:J7" si="0">SUM(F3:F6)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="160">
+      <c r="G7" s="141">
         <f t="shared" si="0"/>
         <v>10.687999999999999</v>
       </c>
-      <c r="H7" s="160">
+      <c r="H7" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="160">
+      <c r="I7" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="160">
+      <c r="J7" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="160">
+      <c r="K7" s="141">
         <f>SUM(K3:K6)</f>
         <v>76.849999999999994</v>
       </c>
-      <c r="L7" s="160">
+      <c r="L7" s="141">
         <f>SUM(L3:L6)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="160">
+      <c r="M7" s="141">
         <f>SUM(M3:M6)</f>
         <v>0</v>
       </c>
@@ -25127,14 +25127,14 @@
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="142"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="157"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -25541,10 +25541,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="143" t="s">
+      <c r="H17" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="144"/>
+      <c r="I17" s="159"/>
       <c r="M17" s="85"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -25552,8 +25552,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="145"/>
-      <c r="I18" s="146"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
       <c r="M18" s="85"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -25976,14 +25976,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="147" t="s">
+      <c r="H43" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="148"/>
-      <c r="L43" s="148"/>
-      <c r="M43" s="149"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="163"/>
+      <c r="L43" s="163"/>
+      <c r="M43" s="164"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">

--- a/Business - Technology Services/ALAB.xlsx
+++ b/Business - Technology Services/ALAB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8B022C-CBFF-4116-B938-CB23C4E20F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF5BA16-FF61-4941-93A9-E1D445A7DB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$7:$W$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$8:$W$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$24</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$20:$W$20</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$24:$W$24</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$21:$W$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$25:$W$25</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$8:$W$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$9:$W$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="213">
   <si>
     <t>Price</t>
   </si>
@@ -878,19 +878,10 @@
     <t>Co-Founder, CEO &amp; Executive Director</t>
   </si>
   <si>
-    <t>492.13k</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>Mr. Philip Mazzara</t>
   </si>
   <si>
     <t>General Counsel &amp; Secretary</t>
-  </si>
-  <si>
-    <t>491.59k</t>
   </si>
   <si>
     <t>Mr. Sanjay Gajendra</t>
@@ -958,6 +949,15 @@
   <si>
     <t>Sehr abhängig von einzelnen großen Kunden</t>
   </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
 </sst>
 </file>
 
@@ -969,7 +969,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,12 +1083,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF232A31"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1732,7 +1726,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1906,13 +1900,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2071,7 +2058,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$7</c:f>
+              <c:f>Model!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2234,7 +2221,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$7:$W$7</c:f>
+              <c:f>Model!$K$8:$W$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2245,7 +2232,7 @@
                   <c:v>10.687999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>36.927999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2283,7 +2270,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$27</c:f>
+              <c:f>Model!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2360,7 +2347,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$27:$W$27</c:f>
+              <c:f>Model!$K$28:$W$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2733,7 +2720,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$7</c:f>
+              <c:f>Model!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2872,7 +2859,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$7:$H$7</c:f>
+              <c:f>Model!$C$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2905,7 +2892,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$27</c:f>
+              <c:f>Model!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2992,7 +2979,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$27:$H$27</c:f>
+              <c:f>Model!$C$28:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3012,7 +2999,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48861061072694523</c:v>
+                  <c:v>0.6066758879870553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3356,7 +3343,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$18</c:f>
+              <c:f>Model!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3519,7 +3506,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$18:$W$18</c:f>
+              <c:f>Model!$K$19:$W$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3554,7 +3541,7 @@
                   <c:v>-20.216000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-3.1240000000000041</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3592,7 +3579,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$25</c:f>
+              <c:f>Model!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3669,7 +3656,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$25:$W$25</c:f>
+              <c:f>Model!$K$26:$W$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3704,7 +3691,7 @@
                   <c:v>0.7895770958083832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.76107560658578854</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4054,7 +4041,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$18</c:f>
+              <c:f>Model!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4154,7 +4141,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$18:$H$18</c:f>
+              <c:f>Model!$C$19:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4200,7 +4187,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$31</c:f>
+              <c:f>Model!$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4275,7 +4262,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$31:$H$31</c:f>
+              <c:f>Model!$C$32:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4295,7 +4282,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49999999999999978</c:v>
+                  <c:v>0.93243243243243246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4654,7 +4641,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$28</c:f>
+              <c:f>Model!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4788,7 +4775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$28:$U$28</c:f>
+              <c:f>Model!$K$29:$U$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4823,7 +4810,7 @@
                   <c:v>0.47688997005988032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.14912803292894281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4840,7 +4827,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$29</c:f>
+              <c:f>Model!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4868,154 +4855,6 @@
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Model!$K$29:$V$29</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86430027173913038</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6710329341317367</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1CAA-4791-8C2B-1B9112E1C867}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>G&amp;A / REV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -5110,13 +4949,161 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.86430027173913038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6710329341317367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55854636048526873</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CAA-4791-8C2B-1B9112E1C867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G&amp;A / REV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$K$31:$V$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.19955842391304346</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.28957709580838326</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.10693782495667245</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -5425,7 +5412,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$28</c:f>
+              <c:f>Model!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5538,7 +5525,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$28:$F$28</c:f>
+              <c:f>Model!$C$29:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5569,7 +5556,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$29</c:f>
+              <c:f>Model!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5682,7 +5669,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$29:$F$29</c:f>
+              <c:f>Model!$C$30:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5713,7 +5700,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$30</c:f>
+              <c:f>Model!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5826,7 +5813,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$30:$F$30</c:f>
+              <c:f>Model!$C$31:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6705,18 +6692,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6760,7 +6747,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6780,7 +6767,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>GAAP EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6811,18 +6798,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6866,7 +6853,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6886,7 +6873,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13200,10 +13187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N52"/>
+  <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13258,7 +13245,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="20">
-        <v>45555</v>
+        <v>45663</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>144</v>
@@ -13280,13 +13267,13 @@
         <v>185</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.98124999999999996</v>
+        <v>0.15347222222222223</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>146</v>
@@ -13302,10 +13289,10 @@
       </c>
       <c r="J4" s="37"/>
       <c r="L4" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -13326,13 +13313,13 @@
       </c>
       <c r="J5" s="37"/>
       <c r="L5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N5" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -13340,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>50.5</v>
+        <v>140.93</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>150</v>
@@ -13356,13 +13343,13 @@
       </c>
       <c r="J6" s="37"/>
       <c r="L6" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -13370,8 +13357,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!X19</f>
-        <v>155.19900000000001</v>
+        <f>Model!Y20</f>
+        <v>156</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>152</v>
@@ -13387,13 +13374,13 @@
       </c>
       <c r="J7" s="37"/>
       <c r="L7" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -13402,7 +13389,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>7837.549500000001</v>
+        <v>21985.08</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>154</v>
@@ -13418,10 +13405,10 @@
       </c>
       <c r="J8" s="37"/>
       <c r="L8" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -13430,8 +13417,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!X37+Model!X38</f>
-        <v>830.995</v>
+        <f>Model!Y38+Model!Y39</f>
+        <v>886.80099999999993</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>156</v>
@@ -13447,10 +13434,10 @@
       </c>
       <c r="J9" s="37"/>
       <c r="L9" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -13459,7 +13446,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!E37+Model!E41</f>
+        <f>Model!E38+Model!E42</f>
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -13476,10 +13463,10 @@
       </c>
       <c r="J10" s="37"/>
       <c r="L10" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -13489,7 +13476,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>830.995</v>
+        <v>886.80099999999993</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>160</v>
@@ -13505,10 +13492,10 @@
       </c>
       <c r="J11" s="37"/>
       <c r="L11" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -13518,7 +13505,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>7006.5545000000011</v>
+        <v>21098.279000000002</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>162</v>
@@ -13534,10 +13521,10 @@
       </c>
       <c r="J12" s="13"/>
       <c r="L12" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N12" s="13"/>
     </row>
@@ -13556,8 +13543,8 @@
         <v>44</v>
       </c>
       <c r="C14" s="35">
-        <f>C6/Model!G24</f>
-        <v>90.178571428571416</v>
+        <f>C6/Model!G25</f>
+        <v>190.44594594594597</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="28"/>
@@ -13574,8 +13561,8 @@
         <v>45</v>
       </c>
       <c r="C15" s="35">
-        <f>C6/Model!H24</f>
-        <v>60.11904761904762</v>
+        <f>C6/Model!H25</f>
+        <v>98.55244755244756</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -13589,26 +13576,26 @@
         <v>43</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!H24/Model!G24-1</f>
-        <v>0.49999999999999978</v>
+        <f>Model!H25/Model!G25-1</f>
+        <v>0.93243243243243246</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="146" t="s">
-        <v>209</v>
-      </c>
-      <c r="M17" s="147"/>
-      <c r="N17" s="148"/>
+      <c r="L17" s="143" t="s">
+        <v>206</v>
+      </c>
+      <c r="M17" s="144"/>
+      <c r="N17" s="145"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="50"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="151"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="148"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -13616,86 +13603,86 @@
       </c>
       <c r="C19" s="50">
         <f>C15/(C17*100)</f>
-        <v>1.202380952380953</v>
-      </c>
-      <c r="L19" s="149"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="151"/>
+        <v>1.0569392925914667</v>
+      </c>
+      <c r="L19" s="146"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="148"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="L20" s="149"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="151"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="148"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="6">
-        <f>Model!H8/Model!G8-1</f>
-        <v>0.48861061072694523</v>
-      </c>
-      <c r="L21" s="149"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="151"/>
+        <f>Model!H9/Model!G9-1</f>
+        <v>0.6066758879870553</v>
+      </c>
+      <c r="L21" s="146"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="148"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="L22" s="149"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="151"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="148"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!E10</f>
+        <f>Model!E11</f>
         <v>0</v>
       </c>
-      <c r="L23" s="149"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="151"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="148"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!X25</f>
-        <v>0.77884189980481455</v>
-      </c>
-      <c r="L24" s="149"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="151"/>
+        <f>Model!Y26</f>
+        <v>0.77708115947155265</v>
+      </c>
+      <c r="L24" s="146"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="148"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!X26</f>
-        <v>-0.10200390370852322</v>
-      </c>
-      <c r="L25" s="149"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="151"/>
+        <f>Model!Y27</f>
+        <v>-6.7143589834285283E-2</v>
+      </c>
+      <c r="L25" s="146"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="148"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="150"/>
-      <c r="N26" s="151"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="148"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -13707,9 +13694,9 @@
       <c r="E27" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="149"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="151"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="148"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -13719,22 +13706,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
-      </c>
-      <c r="L28" s="152"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="154"/>
+        <v>207</v>
+      </c>
+      <c r="L28" s="149"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="151"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="35">
-        <f>Model!X42/Model!X48</f>
+        <f>Model!X43/Model!X49</f>
         <v>13.909837216924444</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -13742,11 +13729,11 @@
         <v>84</v>
       </c>
       <c r="C30" s="35">
-        <f>(Model!X37+Model!X38+Model!X39)/Model!X48</f>
+        <f>(Model!X38+Model!X39+Model!X40)/Model!X49</f>
         <v>13.316498369047803</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -13754,7 +13741,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="6">
-        <f>(Model!X42-Model!X48)/Model!X45</f>
+        <f>(Model!X43-Model!X49)/Model!X46</f>
         <v>0.90350458485114937</v>
       </c>
     </row>
@@ -13763,197 +13750,33 @@
         <v>86</v>
       </c>
       <c r="C32" s="35">
-        <f>(Model!P36-Model!P44)/Main!C7</f>
+        <f>(Model!P37-Model!P45)/Main!C7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="35"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="37"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="37"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="23"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="144" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="144" t="s">
-        <v>185</v>
-      </c>
-      <c r="G43" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="H43" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="I43" s="145">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44" s="144" t="s">
-        <v>189</v>
-      </c>
-      <c r="G44" s="145" t="s">
-        <v>190</v>
-      </c>
-      <c r="H44" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="I44" s="145">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" s="144" t="s">
-        <v>192</v>
-      </c>
-      <c r="G45" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="H45" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="I45" s="145">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="144" t="s">
-        <v>193</v>
-      </c>
-      <c r="F46" s="144" t="s">
-        <v>194</v>
-      </c>
-      <c r="G46" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="H46" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="I46" s="145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="144" t="s">
-        <v>195</v>
-      </c>
-      <c r="F47" s="144" t="s">
-        <v>196</v>
-      </c>
-      <c r="G47" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="H47" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="I47" s="145">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="144" t="s">
-        <v>197</v>
-      </c>
-      <c r="F48" s="144" t="s">
-        <v>198</v>
-      </c>
-      <c r="G48" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="H48" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="I48" s="145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="144" t="s">
-        <v>199</v>
-      </c>
-      <c r="F49" s="144" t="s">
-        <v>200</v>
-      </c>
-      <c r="G49" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="H49" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="I49" s="145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="144" t="s">
-        <v>201</v>
-      </c>
-      <c r="F50" s="144" t="s">
-        <v>202</v>
-      </c>
-      <c r="G50" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="H50" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="I50" s="145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="144" t="s">
-        <v>203</v>
-      </c>
-      <c r="F51" s="144" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="H51" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="I51" s="145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="144" t="s">
-        <v>205</v>
-      </c>
-      <c r="F52" s="144" t="s">
-        <v>206</v>
-      </c>
-      <c r="G52" s="143"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13967,13 +13790,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13981,15 +13804,15 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="13"/>
-    <col min="24" max="24" width="11.42578125" style="13"/>
+    <col min="25" max="25" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>18</v>
       </c>
@@ -14047,17 +13870,23 @@
       <c r="W2" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="13" t="s">
         <v>137</v>
       </c>
       <c r="Z2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>180</v>
       </c>
@@ -14067,236 +13896,244 @@
       <c r="T3" s="141">
         <v>0.56899999999999995</v>
       </c>
-      <c r="U3" s="141"/>
+      <c r="U3" s="141">
+        <v>22.251999999999999</v>
+      </c>
       <c r="V3" s="141"/>
       <c r="W3" s="141">
         <v>59.573</v>
       </c>
-      <c r="X3" s="142">
+      <c r="X3" s="141">
         <v>63.954999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y3" s="142">
+        <v>76.900999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="S4" s="141"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="141">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="V4" s="141"/>
+      <c r="W4" s="141"/>
+      <c r="X4" s="141"/>
+      <c r="Y4" s="142">
+        <v>16.507000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>181</v>
       </c>
-      <c r="S4" s="141">
+      <c r="S5" s="141">
         <v>5.37</v>
       </c>
-      <c r="T4" s="141">
+      <c r="T5" s="141">
         <v>6.2220000000000004</v>
       </c>
-      <c r="U4" s="141"/>
-      <c r="V4" s="141"/>
-      <c r="W4" s="141">
-        <v>0</v>
-      </c>
-      <c r="X4" s="142">
-        <v>4.4989999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>182</v>
-      </c>
-      <c r="S5" s="141">
-        <v>2.5070000000000001</v>
-      </c>
-      <c r="T5" s="141">
-        <v>2.4119999999999999</v>
-      </c>
-      <c r="U5" s="141"/>
+      <c r="U5" s="141">
+        <v>11.441000000000001</v>
+      </c>
       <c r="V5" s="141"/>
       <c r="W5" s="141">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="X5" s="142">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X5" s="141">
+        <v>4.4989999999999997</v>
+      </c>
+      <c r="Y5" s="142">
+        <v>5.3879999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="S6" s="141">
-        <v>5.2999999999999999E-2</v>
+        <v>2.5070000000000001</v>
       </c>
       <c r="T6" s="141">
-        <v>1.4850000000000001</v>
+        <v>2.4119999999999999</v>
       </c>
       <c r="U6" s="141"/>
       <c r="V6" s="141"/>
       <c r="W6" s="141">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="X6" s="141">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="142"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="141">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="T7" s="141">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="U7" s="141">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="V7" s="141"/>
+      <c r="W7" s="141">
         <v>4.8280000000000003</v>
       </c>
-      <c r="X6" s="142">
+      <c r="X7" s="141">
         <v>8.3960000000000008</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="Y7" s="142">
+        <f>11.972+2.318</f>
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11">
-        <f t="shared" ref="S7:V7" si="0">SUM(S3:S6)</f>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11">
+        <f t="shared" ref="S8:V8" si="0">SUM(S3:S7)</f>
         <v>17.664000000000001</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T8" s="11">
         <f t="shared" si="0"/>
         <v>10.687999999999999</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U8" s="11">
+        <f t="shared" si="0"/>
+        <v>36.927999999999997</v>
+      </c>
+      <c r="V8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="11">
-        <f>SUM(W3:W6)</f>
+      <c r="W8" s="11">
+        <f>SUM(W3:W7)</f>
         <v>65.257999999999996</v>
       </c>
-      <c r="X7" s="14">
-        <f>SUM(X3:X6)</f>
+      <c r="X8" s="11">
+        <f>SUM(X3:X7)</f>
         <v>76.849999999999994</v>
       </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="Y8" s="11">
+        <f>SUM(Y3:Y7)</f>
+        <v>113.08600000000001</v>
+      </c>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="41">
-        <v>344.18</v>
-      </c>
-      <c r="H8" s="41">
-        <v>512.35</v>
-      </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="41">
+        <v>383.17</v>
+      </c>
+      <c r="H9" s="41">
+        <v>615.63</v>
+      </c>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10">
         <v>56.7</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X9" s="10">
         <v>72.411000000000001</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y9" s="15">
         <v>95.66</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z9" s="10">
         <v>106.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="AA9" s="10">
+        <v>127.91</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>133.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="127">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="127">
         <v>13.406000000000001</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T10" s="11">
         <v>2.2490000000000001</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11">
+      <c r="U10" s="11">
+        <v>8.8230000000000004</v>
+      </c>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11">
         <v>14.738</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X10" s="11">
         <v>16.995999999999999</v>
       </c>
-      <c r="Y9" s="11">
-        <f>Y8*(1-X25)</f>
-        <v>21.155983864671438</v>
-      </c>
-      <c r="Z9" s="11">
-        <f>Z8*(1-X25)</f>
+      <c r="Y10" s="14">
+        <v>25.209</v>
+      </c>
+      <c r="Z10" s="11">
+        <f>Z9*(1-X26)</f>
         <v>23.491413402732597</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="129">
-        <v>15.266999999999999</v>
-      </c>
-      <c r="T10" s="10">
-        <v>17.86</v>
-      </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10">
-        <v>53.558</v>
-      </c>
-      <c r="X10" s="15">
-        <v>40.088999999999999</v>
-      </c>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>142</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -14313,32 +14150,36 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="129">
-        <v>4.3929999999999998</v>
+        <v>15.266999999999999</v>
       </c>
       <c r="T11" s="10">
-        <v>5.0970000000000004</v>
-      </c>
-      <c r="U11" s="10"/>
+        <v>17.86</v>
+      </c>
+      <c r="U11" s="10">
+        <v>20.626000000000001</v>
+      </c>
       <c r="V11" s="10"/>
       <c r="W11" s="10">
-        <v>55.51</v>
-      </c>
-      <c r="X11" s="15">
-        <v>22.076000000000001</v>
-      </c>
-      <c r="Y11" s="10"/>
+        <v>53.558</v>
+      </c>
+      <c r="X11" s="10">
+        <v>40.088999999999999</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>50.658999999999999</v>
+      </c>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -14348,283 +14189,295 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="129">
-        <v>3.5249999999999999</v>
+        <v>4.3929999999999998</v>
       </c>
       <c r="T12" s="10">
-        <v>3.0950000000000002</v>
-      </c>
-      <c r="U12" s="10"/>
+        <v>5.0970000000000004</v>
+      </c>
+      <c r="U12" s="10">
+        <v>5.5069999999999997</v>
+      </c>
       <c r="V12" s="10"/>
       <c r="W12" s="10">
+        <v>55.51</v>
+      </c>
+      <c r="X12" s="10">
+        <v>22.076000000000001</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>23.248000000000001</v>
+      </c>
+      <c r="Z12" s="10"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="129">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="T13" s="10">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="U13" s="10">
+        <v>3.9489999999999998</v>
+      </c>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10">
         <v>24.419</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X13" s="10">
         <v>22.036000000000001</v>
       </c>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="Y13" s="15">
+        <v>22.866</v>
+      </c>
+      <c r="Z13" s="10"/>
+    </row>
+    <row r="14" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="11">
-        <f t="shared" ref="C13:H13" si="1">C7-SUM(C9:C12)</f>
+      <c r="C14" s="11">
+        <f t="shared" ref="C14:H14" si="1">C8-SUM(C10:C13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F14" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11">
-        <f t="shared" ref="K13:Z13" si="2">K7-SUM(K9:K12)</f>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
+        <f t="shared" ref="K14:Z14" si="2">K8-SUM(K10:K13)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S13" s="127">
+      <c r="S14" s="127">
         <f t="shared" si="2"/>
         <v>-18.927</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T14" s="11">
         <f t="shared" si="2"/>
         <v>-17.613</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U14" s="11">
+        <f t="shared" si="2"/>
+        <v>-1.9770000000000039</v>
+      </c>
+      <c r="V14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V13" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="11">
+      <c r="W14" s="11">
         <f t="shared" si="2"/>
         <v>-82.966999999999999</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X14" s="11">
         <f t="shared" si="2"/>
         <v>-24.347000000000008</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y14" s="14">
         <f t="shared" si="2"/>
-        <v>-21.155983864671438</v>
-      </c>
-      <c r="Z13" s="11">
+        <v>-8.8959999999999866</v>
+      </c>
+      <c r="Z14" s="11">
         <f t="shared" si="2"/>
         <v>-23.491413402732597</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="129">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="129">
         <v>1.5960000000000001</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T15" s="10">
         <v>1.5549999999999999</v>
       </c>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10">
+      <c r="U15" s="10">
+        <v>1.724</v>
+      </c>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10">
         <v>2.5539999999999998</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X15" s="10">
         <v>10.263999999999999</v>
       </c>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-    </row>
-    <row r="15" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="Y15" s="15">
+        <v>10.912000000000001</v>
+      </c>
+      <c r="Z15" s="10"/>
+    </row>
+    <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="11">
-        <f t="shared" ref="C15:H15" si="3">C13+SUM(C14:C14)</f>
+      <c r="C16" s="11">
+        <f t="shared" ref="C16:H16" si="3">C14+SUM(C15:C15)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F16" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H16" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="11">
-        <f t="shared" ref="K15:Z15" si="4">K13+SUM(K14:K14)</f>
+      <c r="K16" s="11">
+        <f t="shared" ref="K16:Z16" si="4">K14+SUM(K15:K15)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L16" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M16" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N16" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O16" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P16" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q16" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R16" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S15" s="127">
+      <c r="S16" s="127">
         <f t="shared" si="4"/>
         <v>-17.331</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T16" s="11">
         <f t="shared" si="4"/>
         <v>-16.058</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U16" s="11">
+        <f t="shared" si="4"/>
+        <v>-0.25300000000000389</v>
+      </c>
+      <c r="V16" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V15" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="11">
+      <c r="W16" s="11">
         <f t="shared" si="4"/>
         <v>-80.412999999999997</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X16" s="11">
         <f t="shared" si="4"/>
         <v>-14.083000000000009</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y16" s="14">
         <f t="shared" si="4"/>
-        <v>-21.155983864671438</v>
-      </c>
-      <c r="Z15" s="11">
+        <v>2.0160000000000142</v>
+      </c>
+      <c r="Z16" s="11">
         <f t="shared" si="4"/>
         <v>-23.491413402732597</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>20</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="129">
-        <v>0.123</v>
-      </c>
-      <c r="T16" s="10">
-        <v>3.9460000000000002</v>
-      </c>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10">
-        <v>12.582000000000001</v>
-      </c>
-      <c r="X16" s="15">
-        <v>-6.5369999999999999</v>
-      </c>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>25</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -14641,271 +14494,279 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
       <c r="S17" s="129">
-        <v>-0.20799999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="T17" s="10">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="U17" s="10"/>
+        <v>3.9460000000000002</v>
+      </c>
+      <c r="U17" s="10">
+        <v>2.871</v>
+      </c>
       <c r="V17" s="10"/>
       <c r="W17" s="10">
+        <v>12.582000000000001</v>
+      </c>
+      <c r="X17" s="10">
+        <v>-6.5369999999999999</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>9.609</v>
+      </c>
+      <c r="Z17" s="10"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="129">
+        <v>-0.20799999999999999</v>
+      </c>
+      <c r="T18" s="10">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10">
         <v>0.318</v>
       </c>
-      <c r="X17" s="15">
+      <c r="X18" s="10">
         <v>0.29299999999999998</v>
       </c>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-    </row>
-    <row r="18" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="10"/>
+    </row>
+    <row r="19" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11">
-        <f t="shared" ref="C18:F18" si="5">C15-SUM(C16:C17)</f>
+      <c r="C19" s="11">
+        <f t="shared" ref="C19:F19" si="5">C16-SUM(C17:C18)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F19" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="K18" s="11">
-        <f t="shared" ref="K18" si="6">K15-SUM(K16:K17)</f>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="K19" s="11">
+        <f t="shared" ref="K19" si="6">K16-SUM(K17:K18)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="11">
-        <f t="shared" ref="L18" si="7">L15-SUM(L16:L17)</f>
+      <c r="L19" s="11">
+        <f t="shared" ref="L19" si="7">L16-SUM(L17:L18)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="11">
-        <f t="shared" ref="M18" si="8">M15-SUM(M16:M17)</f>
+      <c r="M19" s="11">
+        <f t="shared" ref="M19" si="8">M16-SUM(M17:M18)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="11">
-        <f t="shared" ref="N18" si="9">N15-SUM(N16:N17)</f>
+      <c r="N19" s="11">
+        <f t="shared" ref="N19" si="9">N16-SUM(N17:N18)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="11">
-        <f t="shared" ref="O18" si="10">O15-SUM(O16:O17)</f>
+      <c r="O19" s="11">
+        <f t="shared" ref="O19" si="10">O16-SUM(O17:O18)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="11">
-        <f t="shared" ref="P18" si="11">P15-SUM(P16:P17)</f>
+      <c r="P19" s="11">
+        <f t="shared" ref="P19" si="11">P16-SUM(P17:P18)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="11">
-        <f t="shared" ref="Q18" si="12">Q15-SUM(Q16:Q17)</f>
+      <c r="Q19" s="11">
+        <f t="shared" ref="Q19" si="12">Q16-SUM(Q17:Q18)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="11">
-        <f t="shared" ref="R18" si="13">R15-SUM(R16:R17)</f>
+      <c r="R19" s="11">
+        <f t="shared" ref="R19" si="13">R16-SUM(R17:R18)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="127">
-        <f t="shared" ref="S18" si="14">S15-SUM(S16:S17)</f>
+      <c r="S19" s="127">
+        <f t="shared" ref="S19" si="14">S16-SUM(S17:S18)</f>
         <v>-17.245999999999999</v>
       </c>
-      <c r="T18" s="11">
-        <f t="shared" ref="T18" si="15">T15-SUM(T16:T17)</f>
+      <c r="T19" s="11">
+        <f t="shared" ref="T19" si="15">T16-SUM(T17:T18)</f>
         <v>-20.216000000000001</v>
       </c>
-      <c r="U18" s="11">
-        <f t="shared" ref="U18" si="16">U15-SUM(U16:U17)</f>
+      <c r="U19" s="11">
+        <f t="shared" ref="U19" si="16">U16-SUM(U17:U18)</f>
+        <v>-3.1240000000000041</v>
+      </c>
+      <c r="V19" s="11">
+        <f t="shared" ref="V19:Z19" si="17">V16-SUM(V17:V18)</f>
         <v>0</v>
       </c>
-      <c r="V18" s="11">
-        <f t="shared" ref="V18:Z18" si="17">V15-SUM(V16:V17)</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="11">
+      <c r="W19" s="11">
         <f t="shared" si="17"/>
         <v>-93.313000000000002</v>
       </c>
-      <c r="X18" s="14">
-        <f>X15-SUM(X16:X17)</f>
+      <c r="X19" s="11">
+        <f>X16-SUM(X17:X18)</f>
         <v>-7.8390000000000093</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y19" s="14">
         <f t="shared" si="17"/>
-        <v>-21.155983864671438</v>
-      </c>
-      <c r="Z18" s="11">
+        <v>-7.5929999999999858</v>
+      </c>
+      <c r="Z19" s="11">
         <f t="shared" si="17"/>
         <v>-23.491413402732597</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10">
         <v>35.826000000000001</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T20" s="10">
         <v>36.567</v>
       </c>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10">
+      <c r="U20" s="10">
+        <v>37.47</v>
+      </c>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10">
         <v>52.531999999999996</v>
       </c>
-      <c r="X19" s="15">
+      <c r="X20" s="10">
         <v>155.19900000000001</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y20" s="15">
         <v>156</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z20" s="10">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="2" t="e">
-        <f>C18/C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="2" t="e">
-        <f>D18/D19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="2" t="e">
-        <f>E18/E19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="56" t="e">
-        <f>F18/F19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="K20" s="2" t="e">
-        <f t="shared" ref="K20:Z20" si="18">K18/K19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="2" t="e">
+      <c r="C21" s="2" t="e">
+        <f>C19/C20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="2" t="e">
+        <f>D19/D20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="2" t="e">
+        <f>E19/E20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="56" t="e">
+        <f>F19/F20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="K21" s="2" t="e">
+        <f t="shared" ref="K21:Z21" si="18">K19/K20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="2" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="2" t="e">
+      <c r="M21" s="2" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N20" s="2" t="e">
+      <c r="N21" s="2" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O20" s="2" t="e">
+      <c r="O21" s="2" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P20" s="2" t="e">
+      <c r="P21" s="2" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q20" s="2" t="e">
+      <c r="Q21" s="2" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R20" s="2" t="e">
+      <c r="R21" s="2" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S21" s="2">
         <f t="shared" si="18"/>
         <v>-0.48138223636465133</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T21" s="2">
         <f t="shared" si="18"/>
         <v>-0.55284819646129024</v>
       </c>
-      <c r="U20" s="2" t="e">
+      <c r="U21" s="2">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V20" s="2" t="e">
+        <v>-8.3373365358953941E-2</v>
+      </c>
+      <c r="V21" s="2" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W21" s="2">
         <f t="shared" si="18"/>
         <v>-1.7763077743089928</v>
       </c>
-      <c r="X20" s="34">
+      <c r="X21" s="2">
         <f t="shared" si="18"/>
         <v>-5.0509346065374189E-2</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y21" s="34">
         <f t="shared" si="18"/>
-        <v>-0.13561528118379126</v>
-      </c>
-      <c r="Z20" s="2">
+        <v>-4.8673076923076833E-2</v>
+      </c>
+      <c r="Z21" s="2">
         <f t="shared" si="18"/>
         <v>-0.14962683696008022</v>
       </c>
     </row>
-    <row r="21" spans="2:26" s="136" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="131" t="s">
+    <row r="22" spans="2:28" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="131" t="s">
         <v>176</v>
-      </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="135"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="137"/>
-      <c r="T21" s="137"/>
-      <c r="U21" s="137"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="138">
-        <f>88.873+8.895+1.072+8.485</f>
-        <v>107.325</v>
-      </c>
-      <c r="X21" s="139">
-        <f>43.067-13.296</f>
-        <v>29.771000000000001</v>
-      </c>
-      <c r="Y21" s="138"/>
-      <c r="Z21" s="138"/>
-    </row>
-    <row r="22" spans="2:26" s="136" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="131" t="s">
-        <v>177</v>
       </c>
       <c r="C22" s="132"/>
       <c r="D22" s="132"/>
@@ -14923,22 +14784,26 @@
       <c r="R22" s="137"/>
       <c r="S22" s="137"/>
       <c r="T22" s="137"/>
-      <c r="U22" s="137"/>
+      <c r="U22" s="137">
+        <v>2.7109999999999999</v>
+      </c>
       <c r="V22" s="138"/>
       <c r="W22" s="138">
-        <f>W18+W21</f>
-        <v>14.012</v>
-      </c>
-      <c r="X22" s="139">
-        <f>X18+X21</f>
-        <v>21.931999999999992</v>
-      </c>
-      <c r="Y22" s="138"/>
+        <f>88.873+8.895+1.072+8.485</f>
+        <v>107.325</v>
+      </c>
+      <c r="X22" s="138">
+        <f>43.067-13.296</f>
+        <v>29.771000000000001</v>
+      </c>
+      <c r="Y22" s="139">
+        <v>45.534999999999997</v>
+      </c>
       <c r="Z22" s="138"/>
     </row>
-    <row r="23" spans="2:26" s="136" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:28" s="136" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="131" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" s="132"/>
       <c r="D23" s="132"/>
@@ -14956,733 +14821,739 @@
       <c r="R23" s="137"/>
       <c r="S23" s="137"/>
       <c r="T23" s="137"/>
-      <c r="U23" s="137"/>
+      <c r="U23" s="138">
+        <f>U19+U22</f>
+        <v>-0.41300000000000425</v>
+      </c>
       <c r="V23" s="138"/>
       <c r="W23" s="138">
-        <f>W22/W19</f>
+        <f>W19+W22</f>
+        <v>14.012</v>
+      </c>
+      <c r="X23" s="138">
+        <f>X19+X22</f>
+        <v>21.931999999999992</v>
+      </c>
+      <c r="Y23" s="138">
+        <f>Y19+Y22</f>
+        <v>37.942000000000007</v>
+      </c>
+      <c r="Z23" s="138"/>
+    </row>
+    <row r="24" spans="2:28" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="135"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="137"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="138">
+        <f>U23/U20</f>
+        <v>-1.1022151054176789E-2</v>
+      </c>
+      <c r="V24" s="138"/>
+      <c r="W24" s="138">
+        <f>W23/W20</f>
         <v>0.26673265818929415</v>
       </c>
-      <c r="X23" s="139">
-        <f>X22/X19</f>
+      <c r="X24" s="138">
+        <f>X23/X20</f>
         <v>0.14131534352669792</v>
       </c>
-      <c r="Y23" s="138"/>
-      <c r="Z23" s="138"/>
-    </row>
-    <row r="24" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="Y24" s="138">
+        <f>Y23/Y20</f>
+        <v>0.24321794871794877</v>
+      </c>
+      <c r="Z24" s="138"/>
+    </row>
+    <row r="25" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="43">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H24" s="44">
-        <v>0.84</v>
-      </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="43">
+        <v>0.74</v>
+      </c>
+      <c r="H25" s="44">
+        <v>1.43</v>
+      </c>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126">
         <v>0.04</v>
       </c>
-      <c r="X24" s="48">
+      <c r="X25" s="126">
         <v>0.11</v>
       </c>
-      <c r="Y24" s="126">
+      <c r="Y25" s="48">
         <v>0.16</v>
       </c>
-      <c r="Z24" s="126">
+      <c r="Z25" s="126">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="25" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="AA25" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3" t="e">
-        <f>1-C9/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="3" t="e">
-        <f>1-D9/D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="3" t="e">
-        <f>1-E9/E7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="6" t="e">
-        <f>1-F9/F7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="K25" s="3" t="e">
-        <f t="shared" ref="K25:Z25" si="19">1-K9/K7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="3" t="e">
+      <c r="C26" s="3" t="e">
+        <f>1-C10/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="3" t="e">
+        <f>1-D10/D8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="3" t="e">
+        <f>1-E10/E8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="6" t="e">
+        <f>1-F10/F8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="K26" s="3" t="e">
+        <f t="shared" ref="K26:Z26" si="19">1-K10/K8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="3" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="3" t="e">
+      <c r="M26" s="3" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="3" t="e">
+      <c r="N26" s="3" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O25" s="3" t="e">
+      <c r="O26" s="3" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P25" s="3" t="e">
+      <c r="P26" s="3" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q25" s="3" t="e">
+      <c r="Q26" s="3" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R25" s="3" t="e">
+      <c r="R26" s="3" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S26" s="3">
         <f t="shared" si="19"/>
         <v>0.24105525362318847</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T26" s="3">
         <f t="shared" si="19"/>
         <v>0.7895770958083832</v>
       </c>
-      <c r="U25" s="3" t="e">
+      <c r="U26" s="3">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="38" t="e">
+        <v>0.76107560658578854</v>
+      </c>
+      <c r="V26" s="38" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W25" s="38">
+      <c r="W26" s="38">
         <f t="shared" si="19"/>
         <v>0.7741579576450397</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X26" s="38">
         <f t="shared" si="19"/>
         <v>0.77884189980481455</v>
       </c>
-      <c r="Y25" s="38" t="e">
+      <c r="Y26" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z25" s="38" t="e">
+        <v>0.77708115947155265</v>
+      </c>
+      <c r="Z26" s="38" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="4" t="e">
-        <f>C18/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="4" t="e">
-        <f>D18/D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="4" t="e">
-        <f>E18/E7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="7" t="e">
-        <f>F18/F7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="46">
-        <f>G18/G8</f>
+      <c r="C27" s="4" t="e">
+        <f>C19/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="4" t="e">
+        <f>D19/D8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="4" t="e">
+        <f>E19/E8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="7" t="e">
+        <f>F19/F8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="46">
+        <f>G19/G9</f>
         <v>0</v>
       </c>
-      <c r="H26" s="46">
-        <f>H18/H8</f>
+      <c r="H27" s="46">
+        <f>H19/H9</f>
         <v>0</v>
       </c>
-      <c r="K26" s="4" t="e">
-        <f t="shared" ref="K26:Z26" si="20">K18/K7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="4" t="e">
+      <c r="K27" s="4" t="e">
+        <f t="shared" ref="K27:Z27" si="20">K19/K8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="4" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="4" t="e">
+      <c r="M27" s="4" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="4" t="e">
+      <c r="N27" s="4" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="4" t="e">
+      <c r="O27" s="4" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P26" s="4" t="e">
+      <c r="P27" s="4" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" s="4" t="e">
+      <c r="Q27" s="4" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R26" s="4" t="e">
+      <c r="R27" s="4" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S27" s="4">
         <f t="shared" si="20"/>
         <v>-0.97633605072463747</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T27" s="4">
         <f t="shared" si="20"/>
         <v>-1.8914670658682637</v>
       </c>
-      <c r="U26" s="4" t="e">
+      <c r="U27" s="4">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V26" s="4" t="e">
+        <v>-8.4597053726169963E-2</v>
+      </c>
+      <c r="V27" s="4" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W27" s="4">
         <f t="shared" si="20"/>
         <v>-1.4299089766771891</v>
       </c>
-      <c r="X26" s="7">
+      <c r="X27" s="4">
         <f t="shared" si="20"/>
         <v>-0.10200390370852322</v>
       </c>
-      <c r="Y26" s="4" t="e">
+      <c r="Y27" s="7">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z26" s="4" t="e">
+        <v>-6.7143589834285283E-2</v>
+      </c>
+      <c r="Z27" s="4" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3" t="e">
-        <f>C7/#REF!-1</f>
+      <c r="C28" s="3" t="e">
+        <f>C8/#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="D27" s="3" t="e">
-        <f>D7/C7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="38" t="e">
-        <f>E7/D7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="6" t="e">
-        <f>F7/E7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="47" t="e">
-        <f>G8/F7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="47">
-        <f>H8/G8-1</f>
-        <v>0.48861061072694523</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4" t="e">
-        <f t="shared" ref="O27:Z27" si="21">O7/K7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="4" t="e">
+      <c r="D28" s="3" t="e">
+        <f>D8/C8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="38" t="e">
+        <f>E8/D8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="6" t="e">
+        <f>F8/E8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="47" t="e">
+        <f>G9/F8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="47">
+        <f>H9/G9-1</f>
+        <v>0.6066758879870553</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="e">
+        <f t="shared" ref="O28:Z28" si="21">O8/K8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="4" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="4" t="e">
+      <c r="Q28" s="4" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R27" s="4" t="e">
+      <c r="R28" s="4" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="4" t="e">
+      <c r="S28" s="4" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="4" t="e">
+      <c r="T28" s="4" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="4" t="e">
+      <c r="U28" s="4" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V27" s="4" t="e">
+      <c r="V28" s="4" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W27" s="4">
+      <c r="W28" s="4">
         <f t="shared" si="21"/>
         <v>2.6944067028985503</v>
       </c>
-      <c r="X27" s="7">
+      <c r="X28" s="4">
         <f t="shared" si="21"/>
         <v>6.1903068862275452</v>
       </c>
-      <c r="Y27" s="4" t="e">
+      <c r="Y28" s="7">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="4" t="e">
+        <v>2.0623375216637787</v>
+      </c>
+      <c r="Z28" s="4" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="4" t="e">
-        <f>C11/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="4" t="e">
-        <f>D11/D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="4" t="e">
-        <f>E11/E7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="4" t="e">
-        <f>F11/F7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
-      <c r="K28" s="4" t="e">
-        <f t="shared" ref="K28:Z28" si="22">K11/K7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="4" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="4" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="4" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="4" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="4" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="4" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" si="22"/>
-        <v>0.24869791666666663</v>
-      </c>
-      <c r="T28" s="4">
-        <f t="shared" si="22"/>
-        <v>0.47688997005988032</v>
-      </c>
-      <c r="U28" s="4" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="4" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="4">
-        <f t="shared" si="22"/>
-        <v>0.85062367832296426</v>
-      </c>
-      <c r="X28" s="7">
-        <f t="shared" si="22"/>
-        <v>0.28726089785296033</v>
-      </c>
-      <c r="Y28" s="4" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z28" s="4" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>131</v>
-      </c>
       <c r="C29" s="4" t="e">
-        <f>C10/C7</f>
+        <f>C12/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="4" t="e">
-        <f>D10/D7</f>
+        <f>D12/D8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="4" t="e">
-        <f>E10/E7</f>
+        <f>E12/E8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="4" t="e">
-        <f>F10/F7</f>
+        <f>F12/F8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="122"/>
       <c r="H29" s="122"/>
       <c r="K29" s="4" t="e">
-        <f t="shared" ref="K29:Z29" si="23">K10/K7</f>
+        <f t="shared" ref="K29:Z29" si="22">K12/K8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L29" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" si="23"/>
-        <v>0.86430027173913038</v>
+        <f t="shared" si="22"/>
+        <v>0.24869791666666663</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="23"/>
-        <v>1.6710329341317367</v>
-      </c>
-      <c r="U29" s="4" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="22"/>
+        <v>0.47688997005988032</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="22"/>
+        <v>0.14912803292894281</v>
       </c>
       <c r="V29" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W29" s="4">
-        <f t="shared" si="23"/>
-        <v>0.82071163688743143</v>
-      </c>
-      <c r="X29" s="7">
-        <f t="shared" si="23"/>
-        <v>0.52165256994144438</v>
-      </c>
-      <c r="Y29" s="4" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="22"/>
+        <v>0.85062367832296426</v>
+      </c>
+      <c r="X29" s="4">
+        <f t="shared" si="22"/>
+        <v>0.28726089785296033</v>
+      </c>
+      <c r="Y29" s="7">
+        <f t="shared" si="22"/>
+        <v>0.20557805563907114</v>
       </c>
       <c r="Z29" s="4" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="4" t="e">
-        <f>C12/C7</f>
+        <f>C11/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="4" t="e">
-        <f>D12/D7</f>
+        <f>D11/D8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="4" t="e">
-        <f>E12/E7</f>
+        <f>E11/E8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="4" t="e">
-        <f>F12/F7</f>
+        <f>F11/F8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="122"/>
       <c r="H30" s="122"/>
       <c r="K30" s="4" t="e">
-        <f t="shared" ref="K30:Z30" si="24">K12/K7</f>
+        <f t="shared" ref="K30:Z30" si="23">K11/K8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="23"/>
+        <v>0.86430027173913038</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="23"/>
+        <v>1.6710329341317367</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="23"/>
+        <v>0.55854636048526873</v>
+      </c>
+      <c r="V30" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="4">
+        <f t="shared" si="23"/>
+        <v>0.82071163688743143</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" si="23"/>
+        <v>0.52165256994144438</v>
+      </c>
+      <c r="Y30" s="7">
+        <f t="shared" si="23"/>
+        <v>0.44796880250428872</v>
+      </c>
+      <c r="Z30" s="4" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="4" t="e">
+        <f>C13/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="4" t="e">
+        <f>D13/D8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="4" t="e">
+        <f>E13/E8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="4" t="e">
+        <f>F13/F8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="K31" s="4" t="e">
+        <f t="shared" ref="K31:Z31" si="24">K13/K8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="4" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="4" t="e">
+      <c r="M31" s="4" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="4" t="e">
+      <c r="N31" s="4" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="4" t="e">
+      <c r="O31" s="4" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="4" t="e">
+      <c r="P31" s="4" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="4" t="e">
+      <c r="Q31" s="4" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="4" t="e">
+      <c r="R31" s="4" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S31" s="4">
         <f t="shared" si="24"/>
         <v>0.19955842391304346</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T31" s="4">
         <f t="shared" si="24"/>
         <v>0.28957709580838326</v>
       </c>
-      <c r="U30" s="4" t="e">
+      <c r="U31" s="4">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V30" s="4" t="e">
+        <v>0.10693782495667245</v>
+      </c>
+      <c r="V31" s="4" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W30" s="4">
+      <c r="W31" s="4">
         <f t="shared" si="24"/>
         <v>0.37419166998682157</v>
       </c>
-      <c r="X30" s="7">
+      <c r="X31" s="4">
         <f t="shared" si="24"/>
         <v>0.2867404033832141</v>
       </c>
-      <c r="Y30" s="4" t="e">
+      <c r="Y31" s="7">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z30" s="4" t="e">
+        <v>0.20220009550253787</v>
+      </c>
+      <c r="Z31" s="4" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="59" t="e">
-        <f>C20/#REF!-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="59" t="e">
-        <f>D20/C20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="59" t="e">
-        <f>E20/D20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="125" t="e">
-        <f>F20/E20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="59" t="e">
-        <f>G24/F20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="59">
-        <f>H24/G24-1</f>
-        <v>0.49999999999999978</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4" t="e">
-        <f t="shared" ref="O31:Z31" si="25">O18/K18-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="4" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="4" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="4" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="4" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="4" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="4" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V31" s="4" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="4">
-        <f t="shared" si="25"/>
-        <v>4.4107039313463998</v>
-      </c>
-      <c r="X31" s="7">
-        <f t="shared" si="25"/>
-        <v>-0.61223783142065646</v>
-      </c>
-      <c r="Y31" s="4" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z31" s="4" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="51" t="e">
-        <f>C14/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="51" t="e">
-        <f>D14/D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="51" t="e">
-        <f>E14/E7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="52" t="e">
-        <f>F14/F7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="51">
-        <f>G14/G8</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="51">
-        <f>H14/H8</f>
-        <v>0</v>
+      <c r="C32" s="59" t="e">
+        <f>C21/#REF!-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="59" t="e">
+        <f>D21/C21-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="59" t="e">
+        <f>E21/D21-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="125" t="e">
+        <f>F21/E21-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="59" t="e">
+        <f>G25/F21-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="59">
+        <f>H25/G25-1</f>
+        <v>0.93243243243243246</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
+      <c r="O32" s="4" t="e">
+        <f t="shared" ref="O32:Z32" si="25">O19/K19-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" s="4" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" s="4" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="4" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="4" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="4" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" s="4" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" s="4" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" s="4">
+        <f t="shared" si="25"/>
+        <v>4.4107039313463998</v>
+      </c>
+      <c r="X32" s="4">
+        <f t="shared" si="25"/>
+        <v>-0.61223783142065646</v>
+      </c>
+      <c r="Y32" s="7">
+        <f t="shared" si="25"/>
+        <v>1.4305377720870602</v>
+      </c>
+      <c r="Z32" s="4" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="53" t="e">
-        <f t="shared" ref="C33:H33" si="26">-C14/C13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="53" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="53" t="e">
-        <f t="shared" si="26"/>
+        <v>76</v>
+      </c>
+      <c r="C33" s="51" t="e">
+        <f>C15/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="51" t="e">
+        <f>D15/D8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="51" t="e">
+        <f>E15/E8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="52" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="51" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="51" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <f>F15/F8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="51">
+        <f>G15/G9</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="51">
+        <f>H15/H9</f>
+        <v>0</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -15697,138 +15568,149 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="7"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="36" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="53" t="e">
+        <f t="shared" ref="C34:H34" si="26">-C15/C14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="53" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="53" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="52" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="51" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="51" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="37" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="11">
-        <f t="shared" ref="C36:E36" si="27">C37+C38</f>
+      <c r="C37" s="11">
+        <f t="shared" ref="C37:E37" si="27">C38+C39</f>
         <v>0</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F36" s="14">
-        <f>F37+F38</f>
+      <c r="F37" s="14">
+        <f>F38+F39</f>
         <v>149.31299999999999</v>
       </c>
-      <c r="K36" s="11">
-        <f t="shared" ref="K36" si="28">K37+K38</f>
+      <c r="K37" s="11">
+        <f t="shared" ref="K37" si="28">K38+K39</f>
         <v>0</v>
       </c>
-      <c r="L36" s="11">
-        <f t="shared" ref="L36" si="29">L37+L38</f>
+      <c r="L37" s="11">
+        <f t="shared" ref="L37" si="29">L38+L39</f>
         <v>0</v>
       </c>
-      <c r="M36" s="11">
-        <f t="shared" ref="M36" si="30">M37+M38</f>
+      <c r="M37" s="11">
+        <f t="shared" ref="M37" si="30">M38+M39</f>
         <v>0</v>
       </c>
-      <c r="N36" s="11">
-        <f t="shared" ref="N36" si="31">N37+N38</f>
+      <c r="N37" s="11">
+        <f t="shared" ref="N37" si="31">N38+N39</f>
         <v>0</v>
       </c>
-      <c r="O36" s="11">
-        <f t="shared" ref="O36" si="32">O37+O38</f>
+      <c r="O37" s="11">
+        <f t="shared" ref="O37" si="32">O38+O39</f>
         <v>0</v>
       </c>
-      <c r="P36" s="11">
-        <f t="shared" ref="P36" si="33">P37+P38</f>
+      <c r="P37" s="11">
+        <f t="shared" ref="P37" si="33">P38+P39</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="11">
-        <f t="shared" ref="Q36" si="34">Q37+Q38</f>
+      <c r="Q37" s="11">
+        <f t="shared" ref="Q37" si="34">Q38+Q39</f>
         <v>0</v>
       </c>
-      <c r="R36" s="11">
-        <f t="shared" ref="R36" si="35">R37+R38</f>
+      <c r="R37" s="11">
+        <f t="shared" ref="R37" si="35">R38+R39</f>
         <v>0</v>
       </c>
-      <c r="S36" s="11">
-        <f t="shared" ref="S36" si="36">S37+S38</f>
+      <c r="S37" s="11">
+        <f t="shared" ref="S37" si="36">S38+S39</f>
         <v>0</v>
       </c>
-      <c r="T36" s="11">
-        <f t="shared" ref="T36" si="37">T37+T38</f>
+      <c r="T37" s="11">
+        <f t="shared" ref="T37" si="37">T38+T39</f>
         <v>0</v>
       </c>
-      <c r="U36" s="11">
-        <f t="shared" ref="U36" si="38">U37+U38</f>
+      <c r="U37" s="11">
+        <f t="shared" ref="U37" si="38">U38+U39</f>
         <v>0</v>
       </c>
-      <c r="V36" s="11">
-        <f t="shared" ref="V36" si="39">V37+V38</f>
+      <c r="V37" s="11">
+        <f t="shared" ref="V37" si="39">V38+V39</f>
         <v>149.31299999999999</v>
       </c>
-      <c r="W36" s="11">
-        <f t="shared" ref="W36" si="40">W37+W38</f>
+      <c r="W37" s="11">
+        <f t="shared" ref="W37" si="40">W38+W39</f>
         <v>801.39099999999996</v>
       </c>
-      <c r="X36" s="14">
-        <f t="shared" ref="X36" si="41">X37+X38</f>
+      <c r="X37" s="11">
+        <f t="shared" ref="X37" si="41">X38+X39</f>
         <v>830.995</v>
       </c>
-      <c r="Y36" s="11">
-        <f t="shared" ref="Y36" si="42">Y37+Y38</f>
+      <c r="Y37" s="14">
+        <f t="shared" ref="Y37" si="42">Y38+Y39</f>
+        <v>886.80099999999993</v>
+      </c>
+      <c r="Z37" s="11">
+        <f t="shared" ref="Z37" si="43">Z38+Z39</f>
         <v>0</v>
       </c>
-      <c r="Z36" s="11">
-        <f t="shared" ref="Z36" si="43">Z37+Z38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="15">
-        <v>45.097999999999999</v>
-      </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10">
-        <f>F37</f>
-        <v>45.097999999999999</v>
-      </c>
-      <c r="W37" s="10">
-        <v>696.077</v>
-      </c>
-      <c r="X37" s="15">
-        <v>421.07600000000002</v>
-      </c>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="15">
-        <v>104.215</v>
+        <v>45.097999999999999</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -15842,27 +15724,29 @@
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10">
-        <f t="shared" ref="V38:V41" si="44">F38</f>
-        <v>104.215</v>
+        <f>F38</f>
+        <v>45.097999999999999</v>
       </c>
       <c r="W38" s="10">
-        <v>105.31399999999999</v>
-      </c>
-      <c r="X38" s="15">
-        <v>409.91899999999998</v>
-      </c>
-      <c r="Y38" s="10"/>
+        <v>696.077</v>
+      </c>
+      <c r="X38" s="10">
+        <v>421.07600000000002</v>
+      </c>
+      <c r="Y38" s="15">
+        <v>126.117</v>
+      </c>
       <c r="Z38" s="10"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="15">
-        <v>8.3350000000000009</v>
+        <v>104.215</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -15876,27 +15760,29 @@
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10">
-        <f t="shared" si="44"/>
-        <v>8.3350000000000009</v>
+        <f t="shared" ref="V39:V42" si="44">F39</f>
+        <v>104.215</v>
       </c>
       <c r="W39" s="10">
-        <v>16.757000000000001</v>
-      </c>
-      <c r="X39" s="15">
-        <v>22.233000000000001</v>
-      </c>
-      <c r="Y39" s="10"/>
+        <v>105.31399999999999</v>
+      </c>
+      <c r="X39" s="10">
+        <v>409.91899999999998</v>
+      </c>
+      <c r="Y39" s="15">
+        <v>760.68399999999997</v>
+      </c>
       <c r="Z39" s="10"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="15">
-        <v>24.094999999999999</v>
+        <v>8.3350000000000009</v>
       </c>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
@@ -15911,26 +15797,28 @@
       <c r="U40" s="10"/>
       <c r="V40" s="10">
         <f t="shared" si="44"/>
-        <v>24.094999999999999</v>
+        <v>8.3350000000000009</v>
       </c>
       <c r="W40" s="10">
-        <v>29.567</v>
-      </c>
-      <c r="X40" s="15">
-        <v>28.571999999999999</v>
-      </c>
-      <c r="Y40" s="10"/>
+        <v>16.757000000000001</v>
+      </c>
+      <c r="X40" s="10">
+        <v>22.233000000000001</v>
+      </c>
+      <c r="Y40" s="15">
+        <v>25.385999999999999</v>
+      </c>
       <c r="Z40" s="10"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="15">
-        <v>4.0640000000000001</v>
+        <v>24.094999999999999</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
@@ -15945,145 +15833,149 @@
       <c r="U41" s="10"/>
       <c r="V41" s="10">
         <f t="shared" si="44"/>
+        <v>24.094999999999999</v>
+      </c>
+      <c r="W41" s="10">
+        <v>29.567</v>
+      </c>
+      <c r="X41" s="10">
+        <v>28.571999999999999</v>
+      </c>
+      <c r="Y41" s="15">
+        <v>24.414999999999999</v>
+      </c>
+      <c r="Z41" s="10"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="15">
         <v>4.0640000000000001</v>
       </c>
-      <c r="W41" s="10">
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10">
+        <f t="shared" si="44"/>
+        <v>4.0640000000000001</v>
+      </c>
+      <c r="W42" s="10">
         <v>6.7249999999999996</v>
       </c>
-      <c r="X41" s="15">
+      <c r="X42" s="10">
         <v>9.4450000000000003</v>
       </c>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-    </row>
-    <row r="42" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="Y42" s="15">
+        <v>8.9870000000000001</v>
+      </c>
+      <c r="Z42" s="10"/>
+    </row>
+    <row r="43" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="11">
-        <f>SUM(C37:C41)</f>
+      <c r="C43" s="11">
+        <f>SUM(C38:C42)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="11">
-        <f>SUM(D37:D41)</f>
+      <c r="D43" s="11">
+        <f>SUM(D38:D42)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="11">
-        <f>SUM(E37:E41)</f>
+      <c r="E43" s="11">
+        <f>SUM(E38:E42)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="14">
-        <f>SUM(F37:F41)</f>
+      <c r="F43" s="14">
+        <f>SUM(F38:F42)</f>
         <v>185.80699999999999</v>
       </c>
-      <c r="K42" s="11">
-        <f t="shared" ref="K42:Z42" si="45">SUM(K37:K41)</f>
+      <c r="K43" s="11">
+        <f t="shared" ref="K43:Z43" si="45">SUM(K38:K42)</f>
         <v>0</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L43" s="11">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M43" s="11">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N43" s="11">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O43" s="11">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P43" s="11">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q43" s="11">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R43" s="11">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S42" s="11">
+      <c r="S43" s="11">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T43" s="11">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="U42" s="11">
+      <c r="U43" s="11">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="V42" s="11">
+      <c r="V43" s="11">
         <f t="shared" si="45"/>
         <v>185.80699999999999</v>
       </c>
-      <c r="W42" s="11">
+      <c r="W43" s="11">
         <f t="shared" si="45"/>
         <v>854.43999999999994</v>
       </c>
-      <c r="X42" s="14">
+      <c r="X43" s="11">
         <f t="shared" si="45"/>
         <v>891.245</v>
       </c>
-      <c r="Y42" s="11">
+      <c r="Y43" s="14">
+        <f t="shared" si="45"/>
+        <v>945.58899999999983</v>
+      </c>
+      <c r="Z43" s="11">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="11">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="15">
-        <v>4.7119999999999997</v>
-      </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10">
-        <f t="shared" ref="V43:V44" si="46">F43</f>
-        <v>4.7119999999999997</v>
-      </c>
-      <c r="W43" s="10">
-        <v>7.5810000000000004</v>
-      </c>
-      <c r="X43" s="15">
-        <v>21.821000000000002</v>
-      </c>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="15">
-        <v>5.7729999999999997</v>
+        <v>4.7119999999999997</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
@@ -16097,146 +15989,150 @@
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10">
+        <f t="shared" ref="V44:V45" si="46">F44</f>
+        <v>4.7119999999999997</v>
+      </c>
+      <c r="W44" s="10">
+        <v>7.5810000000000004</v>
+      </c>
+      <c r="X44" s="10">
+        <v>21.821000000000002</v>
+      </c>
+      <c r="Y44" s="15">
+        <v>35.137</v>
+      </c>
+      <c r="Z44" s="10"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="15">
+        <v>5.7729999999999997</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10">
         <f t="shared" si="46"/>
         <v>5.7729999999999997</v>
       </c>
-      <c r="W44" s="10">
+      <c r="W45" s="10">
         <v>2.88</v>
       </c>
-      <c r="X44" s="15">
+      <c r="X45" s="10">
         <v>2.4489999999999998</v>
       </c>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="Y45" s="15">
+        <v>2.339</v>
+      </c>
+      <c r="Z45" s="10"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="11">
-        <f>SUM(C42:C44)</f>
+      <c r="C46" s="11">
+        <f>SUM(C43:C45)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="11">
-        <f>SUM(D42:D44)</f>
+      <c r="D46" s="11">
+        <f>SUM(D43:D45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="11">
-        <f>SUM(E42:E44)</f>
+      <c r="E46" s="11">
+        <f>SUM(E43:E45)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="14">
-        <f>SUM(F42:F44)</f>
+      <c r="F46" s="14">
+        <f>SUM(F43:F45)</f>
         <v>196.29199999999997</v>
       </c>
-      <c r="K45" s="11">
-        <f t="shared" ref="K45:Z45" si="47">SUM(K42:K44)</f>
+      <c r="K46" s="11">
+        <f t="shared" ref="K46:Z46" si="47">SUM(K43:K45)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L46" s="11">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M46" s="11">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N46" s="11">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O46" s="11">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P46" s="11">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q46" s="11">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R46" s="11">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S46" s="11">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="T45" s="11">
+      <c r="T46" s="11">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="U45" s="11">
+      <c r="U46" s="11">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="V45" s="11">
+      <c r="V46" s="11">
         <f t="shared" si="47"/>
         <v>196.29199999999997</v>
       </c>
-      <c r="W45" s="11">
+      <c r="W46" s="11">
         <f t="shared" si="47"/>
         <v>864.90099999999995</v>
       </c>
-      <c r="X45" s="14">
+      <c r="X46" s="11">
         <f t="shared" si="47"/>
         <v>915.51499999999999</v>
       </c>
-      <c r="Y45" s="11">
+      <c r="Y46" s="14">
+        <f t="shared" si="47"/>
+        <v>983.06499999999994</v>
+      </c>
+      <c r="Z46" s="11">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Z45" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="15">
-        <v>6.3369999999999997</v>
-      </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10">
-        <f t="shared" ref="V46:V47" si="48">F46</f>
-        <v>6.3369999999999997</v>
-      </c>
-      <c r="W46" s="10">
-        <v>11.465</v>
-      </c>
-      <c r="X46" s="15">
-        <v>14.595000000000001</v>
-      </c>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="15">
-        <v>28.742000000000001</v>
+        <v>6.3369999999999997</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -16250,324 +16146,364 @@
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10">
+        <f t="shared" ref="V47:V48" si="48">F47</f>
+        <v>6.3369999999999997</v>
+      </c>
+      <c r="W47" s="10">
+        <v>11.465</v>
+      </c>
+      <c r="X47" s="10">
+        <v>14.595000000000001</v>
+      </c>
+      <c r="Y47" s="15">
+        <v>18.550999999999998</v>
+      </c>
+      <c r="Z47" s="10"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="15">
+        <v>28.742000000000001</v>
+      </c>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10">
         <f t="shared" si="48"/>
         <v>28.742000000000001</v>
       </c>
-      <c r="W47" s="10">
+      <c r="W48" s="10">
         <v>34.122</v>
       </c>
-      <c r="X47" s="15">
+      <c r="X48" s="10">
         <v>49.478000000000002</v>
       </c>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-    </row>
-    <row r="48" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="Y48" s="15">
+        <v>69.489000000000004</v>
+      </c>
+      <c r="Z48" s="10"/>
+    </row>
+    <row r="49" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="11">
-        <f>SUM(C46:C47)</f>
+      <c r="C49" s="11">
+        <f>SUM(C47:C48)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="11">
-        <f>SUM(D46:D47)</f>
+      <c r="D49" s="11">
+        <f>SUM(D47:D48)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="11">
-        <f>SUM(E46:E47)</f>
+      <c r="E49" s="11">
+        <f>SUM(E47:E48)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="14">
-        <f>SUM(F46:F47)</f>
+      <c r="F49" s="14">
+        <f>SUM(F47:F48)</f>
         <v>35.079000000000001</v>
       </c>
-      <c r="K48" s="11">
-        <f t="shared" ref="K48:Z48" si="49">SUM(K46:K47)</f>
+      <c r="K49" s="11">
+        <f t="shared" ref="K49:Z49" si="49">SUM(K47:K48)</f>
         <v>0</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L49" s="11">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M49" s="11">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="N48" s="11">
+      <c r="N49" s="11">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O49" s="11">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="P48" s="11">
+      <c r="P49" s="11">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="Q49" s="11">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="R48" s="11">
+      <c r="R49" s="11">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="S48" s="11">
+      <c r="S49" s="11">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="T48" s="11">
+      <c r="T49" s="11">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="U48" s="11">
+      <c r="U49" s="11">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="V48" s="11">
+      <c r="V49" s="11">
         <f t="shared" si="49"/>
         <v>35.079000000000001</v>
       </c>
-      <c r="W48" s="11">
+      <c r="W49" s="11">
         <f t="shared" si="49"/>
         <v>45.587000000000003</v>
       </c>
-      <c r="X48" s="14">
+      <c r="X49" s="11">
         <f t="shared" si="49"/>
         <v>64.073000000000008</v>
       </c>
-      <c r="Y48" s="11">
+      <c r="Y49" s="14">
+        <f t="shared" si="49"/>
+        <v>88.04</v>
+      </c>
+      <c r="Z49" s="11">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="Z48" s="11">
-        <f t="shared" si="49"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="15">
+        <v>3.7869999999999999</v>
+      </c>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10">
+        <f>F50</f>
+        <v>3.7869999999999999</v>
+      </c>
+      <c r="W50" s="10">
+        <v>10.53</v>
+      </c>
+      <c r="X50" s="10">
+        <v>6.19</v>
+      </c>
+      <c r="Y50" s="15">
+        <v>5.4130000000000003</v>
+      </c>
+      <c r="Z50" s="10"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="11">
+        <f>SUM(C49:C50)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="15">
-        <v>3.7869999999999999</v>
-      </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10">
-        <f>F49</f>
-        <v>3.7869999999999999</v>
-      </c>
-      <c r="W49" s="10">
-        <v>10.53</v>
-      </c>
-      <c r="X49" s="15">
-        <v>6.19</v>
-      </c>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-    </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="11">
-        <f>SUM(C48:C49)</f>
+      <c r="D51" s="11">
+        <f>SUM(D49:D50)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="11">
-        <f>SUM(D48:D49)</f>
+      <c r="E51" s="11">
+        <f>SUM(E49:E50)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="11">
-        <f>SUM(E48:E49)</f>
+      <c r="F51" s="14">
+        <f>SUM(F49:F50)</f>
+        <v>38.866</v>
+      </c>
+      <c r="K51" s="11">
+        <f t="shared" ref="K51:Z51" si="50">SUM(K49:K50)</f>
         <v>0</v>
       </c>
-      <c r="F50" s="14">
-        <f>SUM(F48:F49)</f>
-        <v>38.866</v>
-      </c>
-      <c r="K50" s="11">
-        <f t="shared" ref="K50:Z50" si="50">SUM(K48:K49)</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="11">
+      <c r="L51" s="11">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M51" s="11">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="N50" s="11">
+      <c r="N51" s="11">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="O50" s="11">
+      <c r="O51" s="11">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="P50" s="11">
+      <c r="P51" s="11">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="11">
+      <c r="Q51" s="11">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R50" s="11">
+      <c r="R51" s="11">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="S50" s="11">
+      <c r="S51" s="11">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="T50" s="11">
+      <c r="T51" s="11">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="U50" s="11">
+      <c r="U51" s="11">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="V50" s="11">
+      <c r="V51" s="11">
         <f t="shared" si="50"/>
         <v>38.866</v>
       </c>
-      <c r="W50" s="11">
+      <c r="W51" s="11">
         <f t="shared" si="50"/>
         <v>56.117000000000004</v>
       </c>
-      <c r="X50" s="14">
+      <c r="X51" s="11">
         <f t="shared" si="50"/>
         <v>70.263000000000005</v>
       </c>
-      <c r="Y50" s="11">
+      <c r="Y51" s="14">
+        <f t="shared" si="50"/>
+        <v>93.453000000000003</v>
+      </c>
+      <c r="Z51" s="11">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="Z50" s="11">
-        <f t="shared" si="50"/>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="10">
+        <f>C46-C51</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="10">
-        <f>C45-C50</f>
+      <c r="D52" s="10">
+        <f>D46-D51</f>
         <v>0</v>
       </c>
-      <c r="D51" s="10">
-        <f>D45-D50</f>
+      <c r="E52" s="10">
+        <f>E46-E51</f>
         <v>0</v>
       </c>
-      <c r="E51" s="10">
-        <f>E45-E50</f>
+      <c r="F52" s="15">
+        <f>F46-F51</f>
+        <v>157.42599999999999</v>
+      </c>
+      <c r="K52" s="10">
+        <f t="shared" ref="K52:Z52" si="51">K46-K51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="15">
-        <f>F45-F50</f>
-        <v>157.42599999999999</v>
-      </c>
-      <c r="K51" s="10">
-        <f t="shared" ref="K51:Z51" si="51">K45-K50</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="10">
+      <c r="L52" s="10">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="M51" s="10">
+      <c r="M52" s="10">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="N51" s="10">
+      <c r="N52" s="10">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="O51" s="10">
+      <c r="O52" s="10">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="P51" s="10">
+      <c r="P52" s="10">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="Q52" s="10">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="R51" s="10">
+      <c r="R52" s="10">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S51" s="10">
+      <c r="S52" s="10">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="T51" s="10">
+      <c r="T52" s="10">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="U51" s="10">
+      <c r="U52" s="10">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="V51" s="10">
+      <c r="V52" s="10">
         <f t="shared" si="51"/>
         <v>157.42599999999999</v>
       </c>
-      <c r="W51" s="10">
+      <c r="W52" s="10">
         <f t="shared" si="51"/>
         <v>808.78399999999999</v>
       </c>
-      <c r="X51" s="15">
+      <c r="X52" s="10">
         <f t="shared" si="51"/>
         <v>845.25199999999995</v>
       </c>
-      <c r="Y51" s="10">
+      <c r="Y52" s="15">
+        <f t="shared" si="51"/>
+        <v>889.61199999999997</v>
+      </c>
+      <c r="Z52" s="10">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="Z51" s="10">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="54" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="55"/>
-      <c r="X53" s="16"/>
-    </row>
-    <row r="71" spans="6:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F71" s="40"/>
-      <c r="X71" s="40"/>
-    </row>
-    <row r="72" spans="6:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F72" s="16"/>
-      <c r="X72" s="16"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="55"/>
+      <c r="Y54" s="16"/>
+    </row>
+    <row r="72" spans="6:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="40"/>
+      <c r="Y72" s="40"/>
+    </row>
+    <row r="73" spans="6:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="16"/>
+      <c r="Y73" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16605,10 +16541,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G6"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16644,12 +16583,15 @@
       <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>137</v>
       </c>
       <c r="M1" t="s">
         <v>138</v>
       </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -16659,100 +16601,133 @@
       <c r="G3" s="141">
         <v>0.56899999999999995</v>
       </c>
-      <c r="H3" s="141"/>
+      <c r="H3" s="141">
+        <v>22.251999999999999</v>
+      </c>
       <c r="I3" s="141"/>
       <c r="J3" s="141"/>
       <c r="K3" s="141">
         <v>63.954999999999998</v>
       </c>
-      <c r="L3" s="141"/>
+      <c r="L3" s="142">
+        <v>76.900999999999996</v>
+      </c>
       <c r="M3" s="141"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="F4" s="141"/>
-      <c r="G4" s="141">
-        <v>6.2220000000000004</v>
-      </c>
-      <c r="H4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141">
+        <v>2.6389999999999998</v>
+      </c>
       <c r="I4" s="141"/>
       <c r="J4" s="141"/>
-      <c r="K4" s="141">
-        <v>4.4989999999999997</v>
-      </c>
-      <c r="L4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="142">
+        <v>16.507000000000001</v>
+      </c>
       <c r="M4" s="141"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" s="141"/>
       <c r="G5" s="141">
-        <v>2.4119999999999999</v>
-      </c>
-      <c r="H5" s="141"/>
+        <v>6.2220000000000004</v>
+      </c>
+      <c r="H5" s="141">
+        <v>11.441000000000001</v>
+      </c>
       <c r="I5" s="141"/>
       <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
+      <c r="K5" s="141">
+        <v>4.4989999999999997</v>
+      </c>
+      <c r="L5" s="142">
+        <v>5.3879999999999999</v>
+      </c>
       <c r="M5" s="141"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="F6" s="141"/>
       <c r="G6" s="141">
-        <v>1.4850000000000001</v>
+        <v>2.4119999999999999</v>
       </c>
       <c r="H6" s="141"/>
       <c r="I6" s="141"/>
       <c r="J6" s="141"/>
-      <c r="K6" s="141">
-        <v>8.3960000000000008</v>
-      </c>
-      <c r="L6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142"/>
       <c r="M6" s="141"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="H7" s="141">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141">
+        <v>8.3960000000000008</v>
+      </c>
+      <c r="L7" s="142">
+        <f>11.972+2.318</f>
+        <v>14.29</v>
+      </c>
+      <c r="M7" s="141"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="141">
-        <f t="shared" ref="F7:J7" si="0">SUM(F3:F6)</f>
+      <c r="F8" s="141">
+        <f t="shared" ref="F8:J8" si="0">SUM(F3:F7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="141">
+      <c r="G8" s="141">
         <f t="shared" si="0"/>
         <v>10.687999999999999</v>
       </c>
-      <c r="H7" s="141">
+      <c r="H8" s="141">
+        <f t="shared" si="0"/>
+        <v>36.927999999999997</v>
+      </c>
+      <c r="I8" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="141">
+      <c r="J8" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="141">
-        <f t="shared" si="0"/>
+      <c r="K8" s="141">
+        <f>SUM(K3:K7)</f>
+        <v>76.849999999999994</v>
+      </c>
+      <c r="L8" s="142">
+        <f>SUM(L3:L7)</f>
+        <v>113.08600000000001</v>
+      </c>
+      <c r="M8" s="141">
+        <f>SUM(M3:M7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="141">
-        <f>SUM(K3:K6)</f>
-        <v>76.849999999999994</v>
-      </c>
-      <c r="L7" s="141">
-        <f>SUM(L3:L6)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="141">
-        <f>SUM(M3:M6)</f>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25127,14 +25102,14 @@
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="155" t="s">
+      <c r="H1" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="157"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="154"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -25541,10 +25516,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="158" t="s">
+      <c r="H17" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="159"/>
+      <c r="I17" s="156"/>
       <c r="M17" s="85"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -25552,8 +25527,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="160"/>
-      <c r="I18" s="161"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="158"/>
       <c r="M18" s="85"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -25976,14 +25951,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="162" t="s">
+      <c r="H43" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="163"/>
-      <c r="M43" s="164"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="160"/>
+      <c r="L43" s="160"/>
+      <c r="M43" s="161"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
